--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14505" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,26 +41,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张珊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李萍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总结：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.9.1 第一周 周一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谢永业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.9.6 第二周 周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成APP其它四个页面（品牌服装、布料辅料、设计师、我的信息）的草图设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +97,282 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6 第二周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6 第二周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：用例规约已完成但质量未达标，需要修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成布料辅料界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成品牌服装界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成收藏管理界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关注管理界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改首界面设计，完成设计作品详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人信息界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.11 第三周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的收藏”界面设计（包括子界面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我要评论”界面设计（包括子界面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的资料”界面设计（包括子界面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的专辑”界面设计（包括子界面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“购买记录”界面设计（包括子界面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“购买意向”界面设计（包括子界面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“子界面-更改密码”未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成，未统一在同一项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：我的资料任务较多，未分配平均，其余任务完成情况良好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.13 第三周 周三 全天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登录、注册用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成首页-资讯，首页-设计师用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成品牌服装首界面用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成布料辅料首界面用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成我的信息首界面用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵守约定规格，质量较好，额外完成了品牌服装详细信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵守约定规格，质量一般，进行了修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵守约定规格，质量一般，进行了修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵守约定规格，质量良好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午大部分时间用于修改，统一小组作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此次分配任务量过少，但个人能力不一，导致完成效果不一，下次会修改分配量，完成用例规约效果还好，但在统一时会出现许多问题，如改了文字布局，截图完整等，整合需要一定时间，下次要吸取教训。此次小组作品统一、修改、整合已完成，排序未完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.18 第四周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的关注”与“我的收藏模块”用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的购买记录”模块用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的评论”模块用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵守约定规格，质量较好，额外完成了忘记密码流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设计作品首界面用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的资料”与“设置”模块用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的购买意向”模块用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的专辑”模块用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于没有去参考查看上次写好的用例规约，导致描述不清，并且有错漏，需要重新编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的评论中每个模块（资讯，设计作品，品牌服装，布料辅料）的用例规约编写不完整，需要修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此次任务分配较平均，但由于由于沟通不够完善，导致有些组员任务未完成，下次改进，而且由于此次时间不足，所以并未对组员的文档进行合并，晚上回去会做好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.19 第四周 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习H5制作APP,完成下拉刷新demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习H5制作APP,完成轮播图demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习H5制作APP,完成弹窗demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习H5制作APP,完成图片长按删除demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习H5制作APP,完成下拉框demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用例规约，修改用例规约设计图，整合统一需求文档，界面设计，用例规约。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此次任务由于组员对Hbuiler不熟悉，且未找到相应参考资料，所有导致有些任务未完成，另外经过提醒后，Hbuilder自带有模板可以参考，后续会让组员从中提取学习demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成两个页面跳转demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登录页面demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成点赞与取消点赞demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成图片加载demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成单选框demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成复选框demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +460,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -222,20 +478,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -245,6 +525,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -258,10 +606,10 @@
   <a:themeElements>
     <a:clrScheme name="办公室">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="9DA1B4"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="252A33"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -575,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -590,20 +938,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -621,91 +969,91 @@
     </row>
     <row r="4" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -723,121 +1071,603 @@
     </row>
     <row r="13" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+    <row r="27" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+    <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="15">
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="93">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,43 +236,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期：2017.9.18 第四周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的关注”与“我的收藏模块”用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的购买记录”模块用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的评论”模块用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵守约定规格，质量较好，额外完成了忘记密码流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设计作品首界面用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的资料”与“设置”模块用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的购买意向”模块用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的专辑”模块用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于没有去参考查看上次写好的用例规约，导致描述不清，并且有错漏，需要重新编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的评论中每个模块（资讯，设计作品，品牌服装，布料辅料）的用例规约编写不完整，需要修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此次任务分配较平均，但由于由于沟通不够完善，导致有些组员任务未完成，下次改进，而且由于此次时间不足，所以并未对组员的文档进行合并，晚上回去会做好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.19 第四周 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习H5制作APP,完成下拉刷新demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习H5制作APP,完成轮播图demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习H5制作APP,完成弹窗demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习H5制作APP,完成图片长按删除demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习H5制作APP,完成下拉框demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用例规约，修改用例规约设计图，整合统一需求文档，界面设计，用例规约。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此次任务由于组员对Hbuiler不熟悉，且未找到相应参考资料，所有导致有些任务未完成，另外经过提醒后，Hbuilder自带有模板可以参考，后续会让组员从中提取学习demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成两个页面跳转demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登录页面demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成点赞与取消点赞demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成图片加载demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成复选框demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成复选框h5代码，未完成css代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：此次分配任务量过少，但个人能力不一，导致完成效果不一，下次会修改分配量，完成用例规约效果还好，但在统一时会出现许多问题，如改了文字布局，截图完整等，整合需要一定时间，下次要吸取教训。此次小组作品统一、修改、整合已完成，排序未完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.9.18 第四周 周一 下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成“我的关注”与“我的收藏模块”用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成“我的购买记录”模块用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成“我的评论”模块用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遵守约定规格，质量较好，额外完成了忘记密码流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成设计作品首界面用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成“我的资料”与“设置”模块用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成“我的购买意向”模块用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
+    <t>完成单选框demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -280,99 +388,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成“我的专辑”模块用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于没有去参考查看上次写好的用例规约，导致描述不清，并且有错漏，需要重新编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的评论中每个模块（资讯，设计作品，品牌服装，布料辅料）的用例规约编写不完整，需要修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：此次任务分配较平均，但由于由于沟通不够完善，导致有些组员任务未完成，下次改进，而且由于此次时间不足，所以并未对组员的文档进行合并，晚上回去会做好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.19 第四周 周二 上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习H5制作APP,完成下拉刷新demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习H5制作APP,完成轮播图demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习H5制作APP,完成弹窗demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习H5制作APP,完成图片长按删除demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习H5制作APP,完成下拉框demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改用例规约，修改用例规约设计图，整合统一需求文档，界面设计，用例规约。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：此次任务由于组员对Hbuiler不熟悉，且未找到相应参考资料，所有导致有些任务未完成，另外经过提醒后，Hbuilder自带有模板可以参考，后续会让组员从中提取学习demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.20 第四周 周三 上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成两个页面跳转demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成登录页面demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成点赞与取消点赞demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成图片加载demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成单选框demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成复选框demo</t>
+    <t>总结：小组成员对demo完成程度不高，主要是由于对css和js的不熟悉，只能做出简单的HTML代码，不能达到制作APP的要求，需要在课余学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,6 +516,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -513,9 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -925,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -938,20 +954,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1040,20 +1056,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1130,20 +1146,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1232,20 +1248,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1286,7 +1302,7 @@
         <v>48</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -1336,7 +1352,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>48</v>
@@ -1346,20 +1362,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1380,10 +1396,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="8"/>
     </row>
@@ -1392,10 +1408,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="8"/>
     </row>
@@ -1404,10 +1420,10 @@
         <v>13</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -1416,10 +1432,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -1428,13 +1444,13 @@
         <v>9</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1442,30 +1458,30 @@
         <v>14</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="16" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-    </row>
-    <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1486,10 +1502,10 @@
         <v>6</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -1498,10 +1514,10 @@
         <v>7</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -1510,10 +1526,10 @@
         <v>13</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -1522,10 +1538,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -1534,10 +1550,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="8"/>
     </row>
@@ -1546,28 +1562,28 @@
         <v>14</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="A56" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1588,9 +1604,11 @@
         <v>6</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1598,9 +1616,11 @@
         <v>7</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1608,9 +1628,11 @@
         <v>13</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="13"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1618,51 +1640,59 @@
         <v>8</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="13"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A38:D38"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,43 +352,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成图片加载demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成复选框h5代码，未完成css代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此次分配任务量过少，但个人能力不一，导致完成效果不一，下次会修改分配量，完成用例规约效果还好，但在统一时会出现许多问题，如改了文字布局，截图完整等，整合需要一定时间，下次要吸取教训。此次小组作品统一、修改、整合已完成，排序未完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：小组成员对demo完成程度不高，主要是由于对css和js的不熟悉，只能做出简单的HTML代码，不能达到制作APP的要求，需要在课余学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成复选框demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成点赞与取消点赞demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计一个“轻纺商圈”图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计一个“轻纺商圈”图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成复选框demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完成点赞与取消点赞demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成图片加载demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成复选框demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成复选框h5代码，未完成css代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：此次分配任务量过少，但个人能力不一，导致完成效果不一，下次会修改分配量，完成用例规约效果还好，但在统一时会出现许多问题，如改了文字布局，截图完整等，整合需要一定时间，下次要吸取教训。此次小组作品统一、修改、整合已完成，排序未完成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成单选框demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：小组成员对demo完成程度不高，主要是由于对css和js的不熟悉，只能做出简单的HTML代码，不能达到制作APP的要求，需要在课余学习</t>
+    <t>完成滑动切换界面demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +500,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,6 +542,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,12 +559,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -939,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:D64"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -954,20 +981,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1056,20 +1083,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1146,20 +1173,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1248,20 +1275,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1362,20 +1389,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1468,20 +1495,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1570,20 +1597,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1607,7 +1634,7 @@
         <v>82</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -1619,7 +1646,7 @@
         <v>81</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -1628,10 +1655,10 @@
         <v>13</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="D60" s="8"/>
     </row>
@@ -1640,10 +1667,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D61" s="8"/>
     </row>
@@ -1652,13 +1679,13 @@
         <v>9</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="D62" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1666,28 +1693,115 @@
         <v>14</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="17" t="s">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
+  <mergeCells count="17">
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A20:D20"/>
@@ -1698,6 +1812,11 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,6 +413,21 @@
   </si>
   <si>
     <t>完成滑动切换界面demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此次时间较充足，大家完成情况很好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +515,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,19 +561,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -969,7 +987,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="A73" sqref="A73:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -981,20 +999,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1083,20 +1101,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1173,20 +1191,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1275,20 +1293,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1389,20 +1407,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1495,20 +1513,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1597,20 +1615,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1701,20 +1719,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -1737,7 +1755,9 @@
       <c r="B67" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="15"/>
+      <c r="C67" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1747,7 +1767,9 @@
       <c r="B68" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="15"/>
+      <c r="C68" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1757,7 +1779,9 @@
       <c r="B69" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="15"/>
+      <c r="C69" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1767,7 +1791,9 @@
       <c r="B70" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="15"/>
+      <c r="C70" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1777,7 +1803,9 @@
       <c r="B71" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="8"/>
+      <c r="C71" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1787,19 +1815,26 @@
       <c r="B72" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="15"/>
+      <c r="C72" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+      <c r="A73" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A56:D56"/>
@@ -1812,11 +1847,6 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,6 +428,22 @@
   </si>
   <si>
     <t>总结：此次时间较充足，大家完成情况很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.25 第五周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读设计库设计文档及用例规约，筛选APP所需实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读设计库设计文档及用例规约，筛选APP所需实体，提交修改后的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读设计库设计文档及用例规约，筛选APP所需实体，提交修改后的文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +531,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -563,6 +579,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,12 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -667,10 +686,10 @@
   <a:themeElements>
     <a:clrScheme name="办公室">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="9DA1B4"/>
+        <a:sysClr val="windowText" lastClr="505B66"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="252A33"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -984,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:D73"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -999,20 +1018,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1101,20 +1120,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1191,20 +1210,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1293,20 +1312,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1407,20 +1426,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1513,20 +1532,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1615,20 +1634,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1719,20 +1738,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -1821,20 +1840,107 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+    </row>
+    <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="17"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="17"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
+  <mergeCells count="19">
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A56:D56"/>
@@ -1847,6 +1953,11 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="122">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +444,66 @@
   </si>
   <si>
     <t>阅读设计库设计文档及用例规约，筛选APP所需实体，提交修改后的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读设计库设计文档及用例规约，筛选APP所需实体，提交修改后的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26 第五周 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与讨论数据库实体设计，完善实体（设计师作品）的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论完成数据库实体设计，完善实体（用户账号、用户资料）的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与讨论数据库实体设计，完善实体（布料）的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与讨论数据库实体设计，辅助完成实体（设计师作品）的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与讨论数据库实体设计，辅助完成实体（布料）的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与讨论数据库实体设计，辅助完成实体（设计师作品）的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况良好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况良好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况一般</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +591,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -583,6 +643,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,6 +658,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1003,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1018,20 +1084,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1120,20 +1186,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1210,20 +1276,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1312,20 +1378,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1426,20 +1492,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1532,20 +1598,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1634,20 +1700,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1738,20 +1804,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -1840,20 +1906,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -1876,7 +1942,9 @@
       <c r="B76" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="D76" s="8"/>
     </row>
     <row r="77" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -1886,38 +1954,54 @@
       <c r="B77" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="8"/>
+      <c r="C77" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -1926,19 +2010,115 @@
       <c r="B81" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="8"/>
+      <c r="C81" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+    </row>
+    <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+    </row>
+    <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="18"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="18"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="18"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A91:D91"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A65:D65"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="124">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -504,6 +504,14 @@
   </si>
   <si>
     <t>完成情况一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：今天上午已完成所有实体设计，实体属性设计已完成3个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,23 +653,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1071,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1084,20 +1092,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1186,20 +1194,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1276,20 +1284,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1378,20 +1386,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1492,20 +1500,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1598,20 +1606,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1700,20 +1708,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1804,20 +1812,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -1906,20 +1914,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2018,20 +2026,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2054,7 +2062,9 @@
       <c r="B85" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="18"/>
+      <c r="C85" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2064,7 +2074,9 @@
       <c r="B86" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="18"/>
+      <c r="C86" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2074,7 +2086,9 @@
       <c r="B87" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C87" s="18"/>
+      <c r="C87" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="D87" s="8"/>
     </row>
     <row r="88" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2084,7 +2098,9 @@
       <c r="B88" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="18"/>
+      <c r="C88" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2094,7 +2110,9 @@
       <c r="B89" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="8"/>
+      <c r="C89" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2104,25 +2122,26 @@
       <c r="B90" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="18"/>
+      <c r="C90" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
+      <c r="A91" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A20:D20"/>
@@ -2133,11 +2152,12 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="132">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,38 @@
   </si>
   <si>
     <t>总结：今天上午已完成所有实体设计，实体属性设计已完成3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实体（专辑）属性设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实体（关注）属性设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实体（资讯）属性设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成实体（关注）属性设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成实体（资讯）属性设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实体（服装）属性设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +631,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -653,6 +685,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,12 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1077,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:D91"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1092,20 +1127,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1194,20 +1229,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1284,20 +1319,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1386,20 +1421,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1500,20 +1535,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1606,20 +1641,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1708,20 +1743,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1812,20 +1847,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -1914,20 +1949,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2026,20 +2061,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2128,20 +2163,113 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+    </row>
+    <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+    </row>
+    <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="19"/>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96" s="19"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="19"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A100" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
+  <mergeCells count="23">
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A20:D20"/>
@@ -2152,12 +2280,11 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -539,11 +539,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>辅助完成实体（资讯）属性设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成实体（服装）属性设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">辅助完成实体（资讯）属性设计 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,23 +688,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:D100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1127,20 +1127,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1229,20 +1229,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1319,20 +1319,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1421,20 +1421,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1535,20 +1535,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1641,20 +1641,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1743,20 +1743,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1847,20 +1847,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -1949,20 +1949,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2061,20 +2061,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2163,20 +2163,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2197,7 +2197,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="8"/>
@@ -2237,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -2253,21 +2253,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A56:D56"/>
@@ -2280,11 +2279,12 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="134">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,31 +519,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成实体（专辑）属性设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实体（关注）属性设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实体（资讯）属性设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成实体（关注）属性设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实体（服装）属性设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">辅助完成实体（资讯）属性设计 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成实体（专辑）属性设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成实体（关注）属性设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成实体（资讯）属性设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助完成实体（关注）属性设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成实体（服装）属性设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">辅助完成实体（资讯）属性设计 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,6 +696,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,12 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1114,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1127,20 +1135,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1229,20 +1237,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1319,20 +1327,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1421,20 +1429,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1535,20 +1543,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1641,20 +1649,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1743,20 +1751,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1847,20 +1855,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -1949,20 +1957,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2061,20 +2069,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2163,20 +2171,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2197,9 +2205,11 @@
         <v>6</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C94" s="19"/>
+        <v>129</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="D94" s="8"/>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2207,9 +2217,11 @@
         <v>7</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C95" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="D95" s="8"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2217,9 +2229,11 @@
         <v>13</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C96" s="19"/>
+        <v>126</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="D96" s="8"/>
     </row>
     <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2227,9 +2241,11 @@
         <v>8</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C97" s="19"/>
+        <v>128</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="D97" s="8"/>
     </row>
     <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2237,9 +2253,11 @@
         <v>9</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C98" s="8"/>
       <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2247,26 +2265,29 @@
         <v>14</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C99" s="19"/>
+        <v>127</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+      <c r="A100" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A56:D56"/>
@@ -2279,12 +2300,11 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="141">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,6 +552,34 @@
   </si>
   <si>
     <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用mysql搭建数据库，完成表（用户账号、用户资料、设计师作品）的创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成表（布料、资讯）的创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成表（服装）的创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成表（专辑）的创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成表（关注）的创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成表（收藏）的创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +667,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -697,9 +725,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -713,6 +738,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1120,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:D100"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1135,20 +1166,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1237,20 +1268,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1327,20 +1358,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1429,20 +1460,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1543,20 +1574,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1649,20 +1680,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1751,20 +1782,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1855,20 +1886,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -1957,20 +1988,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2069,20 +2100,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2171,20 +2202,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2273,21 +2304,112 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+    </row>
+    <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+    </row>
+    <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="20"/>
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="20"/>
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="20"/>
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="20"/>
+      <c r="D106" s="8"/>
+    </row>
+    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="20"/>
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
+  <mergeCells count="25">
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A56:D56"/>
@@ -2300,11 +2422,12 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="150">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,6 +580,42 @@
   </si>
   <si>
     <t>完成表（收藏）的创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.9 第七周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目后台框架的搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善数据库（fcsalbum、fcscloth、fcscollect、fcscomment）的注释、null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善数据库（fcscomponent、fcscostume、fcsdeignwork）的注释、null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善数据库（fcsdictcate、fcsdictdata、fasfllow）的注释、null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善数据库（fcsinformation、fcspurchase、fcstype）的注释、null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善数据库（fcsuseraccount、fcsuserdata、fcsweave）的注释、null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +703,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -727,6 +763,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,14 +775,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -834,10 +873,10 @@
   <a:themeElements>
     <a:clrScheme name="办公室">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="9DA1B4"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="252A33"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1151,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1174,12 +1213,12 @@
       <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1276,12 +1315,12 @@
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1366,12 +1405,12 @@
       <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1468,12 +1507,12 @@
       <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1574,20 +1613,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1680,20 +1719,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1782,20 +1821,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1886,20 +1925,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -1988,20 +2027,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2100,20 +2139,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2202,20 +2241,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2304,20 +2343,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2340,7 +2379,9 @@
       <c r="B103" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C103" s="20"/>
+      <c r="C103" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="D103" s="8"/>
     </row>
     <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2350,7 +2391,9 @@
       <c r="B104" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C104" s="20"/>
+      <c r="C104" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2360,7 +2403,9 @@
       <c r="B105" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C105" s="20"/>
+      <c r="C105" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="D105" s="8"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2370,7 +2415,9 @@
       <c r="B106" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C106" s="20"/>
+      <c r="C106" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="D106" s="8"/>
     </row>
     <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2380,7 +2427,9 @@
       <c r="B107" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C107" s="8"/>
+      <c r="C107" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="D107" s="8"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2390,19 +2439,122 @@
       <c r="B108" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C108" s="20"/>
+      <c r="C108" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+    </row>
+    <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+    </row>
+    <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="21"/>
+      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="21"/>
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" s="21"/>
+      <c r="D114" s="8"/>
+    </row>
+    <row r="115" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="8"/>
+    </row>
+    <row r="116" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+    </row>
+    <row r="117" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" s="21"/>
+      <c r="D117" s="8"/>
+    </row>
+    <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A19:D19"/>
@@ -2419,15 +2571,6 @@
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="151">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,23 +599,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完善数据库（fcscomponent、fcscostume、fcsdeignwork）的注释、null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善数据库（fcsinformation、fcspurchase、fcstype）的注释、null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善数据库（fcsuseraccount、fcsuserdata、fcsweave）的注释、null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完善数据库（fcsalbum、fcscloth、fcscollect、fcscomment）的注释、null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完善数据库（fcscomponent、fcscostume、fcsdeignwork）的注释、null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完善数据库（fcsdictcate、fcsdictdata、fasfllow）的注释、null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完善数据库（fcsinformation、fcspurchase、fcstype）的注释、null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善数据库（fcsuseraccount、fcsuserdata、fcsweave）的注释、null</t>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2481,7 +2485,9 @@
       <c r="B112" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C112" s="21"/>
+      <c r="C112" s="21" t="s">
+        <v>150</v>
+      </c>
       <c r="D112" s="8"/>
     </row>
     <row r="113" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2489,9 +2495,11 @@
         <v>7</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C113" s="21"/>
+        <v>148</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="D113" s="8"/>
     </row>
     <row r="114" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -2499,9 +2507,11 @@
         <v>13</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" s="21"/>
+        <v>145</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="D114" s="8"/>
     </row>
     <row r="115" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2509,9 +2519,11 @@
         <v>8</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C115" s="21"/>
+        <v>149</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="D115" s="8"/>
     </row>
     <row r="116" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -2519,9 +2531,11 @@
         <v>9</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C116" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="D116" s="8"/>
     </row>
     <row r="117" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -2529,9 +2543,11 @@
         <v>14</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C117" s="21"/>
+        <v>147</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="159">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,6 +620,38 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.16 第八周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理，完善web接口文档，数据库接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入数据库（fcsdictcate表、fcsdictdata表）服装分类及面料辅料数据录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入数据库(fcsuseraccount表，fcsuserdata表)数据（录入用户信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入数据库(fcsinformation表)数据（录入资讯信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成资讯信息的录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成服装服装分类和面料辅料数据的录入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +739,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -770,6 +802,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,14 +814,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -877,10 +912,10 @@
   <a:themeElements>
     <a:clrScheme name="办公室">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="9DA1B4"/>
+        <a:sysClr val="windowText" lastClr="505B66"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="252A33"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1194,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1209,20 +1244,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1311,20 +1346,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1401,20 +1436,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1503,20 +1538,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1617,20 +1652,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1723,20 +1758,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1825,20 +1860,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1929,20 +1964,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2031,20 +2066,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2143,20 +2178,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2245,20 +2280,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2347,20 +2382,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2449,20 +2484,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="24" t="s">
+      <c r="A109" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2551,15 +2586,118 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="24" t="s">
+      <c r="A118" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+    </row>
+    <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+    </row>
+    <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C121" s="22"/>
+      <c r="D121" s="8"/>
+    </row>
+    <row r="122" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" s="22"/>
+      <c r="D122" s="8"/>
+    </row>
+    <row r="123" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" s="22"/>
+      <c r="D123" s="8"/>
+    </row>
+    <row r="124" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C124" s="22"/>
+      <c r="D124" s="8"/>
+    </row>
+    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126" s="22"/>
+      <c r="D126" s="8"/>
+    </row>
+    <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A127" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A110:D110"/>
     <mergeCell ref="A118:D118"/>
     <mergeCell ref="A38:D38"/>
@@ -2573,20 +2711,9 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="161">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,6 +652,14 @@
   </si>
   <si>
     <t>辅助完成服装服装分类和面料辅料数据的录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,14 +822,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1232,7 +1240,7 @@
   <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1244,12 +1252,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1346,12 +1354,12 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
@@ -1436,12 +1444,12 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
@@ -1538,12 +1546,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -2178,7 +2186,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="28" t="s">
         <v>111</v>
       </c>
       <c r="B82" s="25"/>
@@ -2622,7 +2630,9 @@
       <c r="B121" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C121" s="22"/>
+      <c r="C121" s="22" t="s">
+        <v>159</v>
+      </c>
       <c r="D121" s="8"/>
     </row>
     <row r="122" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2632,7 +2642,9 @@
       <c r="B122" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C122" s="22"/>
+      <c r="C122" s="22" t="s">
+        <v>159</v>
+      </c>
       <c r="D122" s="8"/>
     </row>
     <row r="123" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2642,7 +2654,9 @@
       <c r="B123" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C123" s="22"/>
+      <c r="C123" s="22" t="s">
+        <v>159</v>
+      </c>
       <c r="D123" s="8"/>
     </row>
     <row r="124" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2652,7 +2666,9 @@
       <c r="B124" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C124" s="22"/>
+      <c r="C124" s="22" t="s">
+        <v>159</v>
+      </c>
       <c r="D124" s="8"/>
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2662,7 +2678,9 @@
       <c r="B125" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="8"/>
+      <c r="C125" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="D125" s="8"/>
     </row>
     <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2672,7 +2690,9 @@
       <c r="B126" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C126" s="22"/>
+      <c r="C126" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2685,6 +2705,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A64:D64"/>
@@ -2693,11 +2726,6 @@
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A110:D110"/>
     <mergeCell ref="A118:D118"/>
     <mergeCell ref="A38:D38"/>
@@ -2706,14 +2734,6 @@
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="168">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,6 +660,34 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.18 第八周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登录后台代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成找回密码页面一代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成注册密码页面一代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成找回密码页面二、三代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成找回密码页面四代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册密码页面一代码编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +775,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -813,6 +841,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,14 +853,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1237,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1252,20 +1283,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1354,20 +1385,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1444,20 +1475,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1546,20 +1577,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1660,20 +1691,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1766,20 +1797,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1868,20 +1899,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1972,20 +2003,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2074,20 +2105,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2186,20 +2217,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2288,20 +2319,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2390,20 +2421,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2492,20 +2523,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2594,20 +2625,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -2696,28 +2727,107 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
+    </row>
+    <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+    </row>
+    <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" s="23"/>
+      <c r="D130" s="8"/>
+    </row>
+    <row r="131" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131" s="23"/>
+      <c r="D131" s="8"/>
+    </row>
+    <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C132" s="23"/>
+      <c r="D132" s="8"/>
+    </row>
+    <row r="133" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C133" s="23"/>
+      <c r="D133" s="8"/>
+    </row>
+    <row r="134" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+    </row>
+    <row r="135" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C135" s="23"/>
+      <c r="D135" s="8"/>
+    </row>
+    <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A136" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="26"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
+  <mergeCells count="31">
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A136:D136"/>
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A64:D64"/>
@@ -2734,6 +2844,19 @@
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="178">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,7 +687,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成注册密码页面一代码编写</t>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.23 第九周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“找回密码”页面二代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成“找回密码”页面四代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成“找回密码”页面三代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“找回密码”页面三代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“注册账号”页面二代码码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善“找回密码”页面一的代码，添加js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册账号页面一代码编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +815,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -844,6 +884,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -853,14 +896,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1268,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1291,12 +1334,12 @@
       <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1393,12 +1436,12 @@
       <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1483,12 +1526,12 @@
       <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1585,12 +1628,12 @@
       <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1691,20 +1734,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1797,20 +1840,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1899,20 +1942,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2003,20 +2046,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2105,20 +2148,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2217,20 +2260,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2319,20 +2362,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2421,20 +2464,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2523,20 +2566,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="24" t="s">
+      <c r="A110" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2625,20 +2668,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="26" t="s">
+      <c r="A118" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="24" t="s">
+      <c r="A119" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -2727,20 +2770,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="26" t="s">
+      <c r="A127" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="24" t="s">
+      <c r="A128" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -2763,7 +2806,9 @@
       <c r="B130" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C130" s="23"/>
+      <c r="C130" s="23" t="s">
+        <v>167</v>
+      </c>
       <c r="D130" s="8"/>
     </row>
     <row r="131" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2771,9 +2816,11 @@
         <v>7</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C131" s="23"/>
       <c r="D131" s="8"/>
     </row>
     <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2783,7 +2830,9 @@
       <c r="B132" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C132" s="23"/>
+      <c r="C132" s="23" t="s">
+        <v>167</v>
+      </c>
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2793,7 +2842,9 @@
       <c r="B133" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C133" s="23"/>
+      <c r="C133" s="23" t="s">
+        <v>169</v>
+      </c>
       <c r="D133" s="8"/>
     </row>
     <row r="134" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2803,7 +2854,9 @@
       <c r="B134" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C134" s="8"/>
+      <c r="C134" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="D134" s="8"/>
     </row>
     <row r="135" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2813,50 +2866,144 @@
       <c r="B135" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C135" s="23"/>
+      <c r="C135" s="23" t="s">
+        <v>168</v>
+      </c>
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="26" t="s">
+      <c r="A136" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+    </row>
+    <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" s="26"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
+    </row>
+    <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C139" s="24"/>
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C140" s="24"/>
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C141" s="24"/>
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C142" s="24"/>
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C144" s="24"/>
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A145" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="27"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A136:D136"/>
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A110:D110"/>
     <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -707,27 +707,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完善“找回密码”页面一的代码，添加js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册账号页面一代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“找回密码”页面三代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“注册账号”页面二代码码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>辅助完成“找回密码”页面四代码编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>辅助完成“找回密码”页面三代码编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成“找回密码”页面三代码编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成“注册账号”页面二代码码编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善“找回密码”页面一的代码，添加js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成注册账号页面一代码编写</t>
+    <t>完成“找回密码”页面四代码编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,13 +887,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -901,9 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1326,20 +1326,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1428,20 +1428,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1518,20 +1518,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1620,20 +1620,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1734,20 +1734,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1840,20 +1840,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1942,20 +1942,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2046,20 +2046,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2148,20 +2148,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2260,20 +2260,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2362,20 +2362,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2464,20 +2464,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2566,20 +2566,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2668,20 +2668,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -2770,20 +2770,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="27" t="s">
+      <c r="A127" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -2816,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C131" s="23" t="s">
         <v>167</v>
@@ -2872,20 +2872,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="25" t="s">
+      <c r="A137" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2906,7 +2906,7 @@
         <v>6</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C139" s="24"/>
       <c r="D139" s="8"/>
@@ -2936,7 +2936,7 @@
         <v>8</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C142" s="24"/>
       <c r="D142" s="8"/>
@@ -2946,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -2962,26 +2962,19 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="27"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
@@ -2990,6 +2983,17 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A137:D137"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A136:D136"/>
     <mergeCell ref="A119:D119"/>
@@ -3000,10 +3004,6 @@
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="182">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -695,39 +695,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期：2017.10.23 第九周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“找回密码”页面二代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善“找回密码”页面一的代码，添加js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册账号页面一代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“找回密码”页面三代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“注册账号”页面二代码码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成“找回密码”页面四代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“找回密码”页面四代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.23 第九周 周一 下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成“找回密码”页面二代码编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善“找回密码”页面一的代码，添加js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成注册账号页面一代码编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成“找回密码”页面三代码编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成“注册账号”页面二代码码编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助完成“找回密码”页面四代码编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成“找回密码”页面四代码编写</t>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,16 +903,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -904,6 +917,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1314,7 +1330,7 @@
   <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1326,20 +1342,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1428,20 +1444,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1518,20 +1534,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1620,20 +1636,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1734,20 +1750,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1840,20 +1856,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1942,20 +1958,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2046,20 +2062,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2148,20 +2164,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2260,20 +2276,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2362,20 +2378,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2464,20 +2480,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2566,20 +2582,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="26" t="s">
+      <c r="A110" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2668,20 +2684,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="26" t="s">
+      <c r="A119" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -2770,20 +2786,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="26" t="s">
+      <c r="A128" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -2816,7 +2832,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C131" s="23" t="s">
         <v>167</v>
@@ -2843,7 +2859,7 @@
         <v>164</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D133" s="8"/>
     </row>
@@ -2855,7 +2871,7 @@
         <v>166</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D134" s="8"/>
     </row>
@@ -2867,25 +2883,25 @@
         <v>165</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="25" t="s">
+      <c r="A136" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
+      <c r="A137" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" s="26"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2906,9 +2922,11 @@
         <v>6</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C139" s="24"/>
+        <v>171</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>177</v>
+      </c>
       <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2916,9 +2934,11 @@
         <v>7</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C140" s="24"/>
+        <v>174</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="D140" s="8"/>
     </row>
     <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2926,9 +2946,11 @@
         <v>13</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C141" s="24"/>
+        <v>170</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>178</v>
+      </c>
       <c r="D141" s="8"/>
     </row>
     <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2936,9 +2958,11 @@
         <v>8</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C142" s="24"/>
+        <v>175</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="D142" s="8"/>
     </row>
     <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2946,9 +2970,11 @@
         <v>9</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C143" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="D143" s="8"/>
     </row>
     <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2956,38 +2982,23 @@
         <v>14</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C144" s="24"/>
+        <v>173</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="25" t="s">
+      <c r="A145" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="25"/>
-      <c r="C145" s="25"/>
-      <c r="D145" s="25"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A145:D145"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A91:D91"/>
@@ -3004,6 +3015,23 @@
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="187">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -744,6 +744,26 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24 第九周 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善注册账号，找回密码js代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成“找回密码”页面四代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成“找回密码”页面三代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成“注册账号”页面二代码码编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,7 +851,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -903,13 +923,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -917,9 +943,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1327,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1342,20 +1365,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1444,20 +1467,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1534,20 +1557,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1636,20 +1659,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1750,20 +1773,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1856,20 +1879,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1958,20 +1981,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2062,20 +2085,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2164,20 +2187,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2276,20 +2299,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2378,20 +2401,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2480,20 +2503,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2582,20 +2605,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2684,20 +2707,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -2786,20 +2809,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="27" t="s">
+      <c r="A127" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -2888,20 +2911,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="25" t="s">
+      <c r="A137" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2990,15 +3013,124 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="27"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26"/>
+    </row>
+    <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" s="28"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+    </row>
+    <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" s="25"/>
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C149" s="25"/>
+      <c r="D149" s="8"/>
+    </row>
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C150" s="25"/>
+      <c r="D150" s="8"/>
+    </row>
+    <row r="151" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C151" s="25"/>
+      <c r="D151" s="8"/>
+    </row>
+    <row r="152" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+    </row>
+    <row r="153" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C153" s="25"/>
+      <c r="D153" s="8"/>
+    </row>
+    <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A154" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A145:D145"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A91:D91"/>
@@ -3015,23 +3147,6 @@
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="197">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,6 +764,46 @@
   </si>
   <si>
     <t>继续完成“注册账号”页面二代码码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.25 第九周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善“注册账号”页面二代码码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入数据库（服装表）的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入数据库（布料表）的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入数据库（作品表）的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助录入数据库（作品表）的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助录入数据库（布料表）的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +891,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -927,7 +967,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -935,7 +975,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -943,6 +983,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1350,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1773,12 +1816,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
@@ -1879,12 +1922,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
@@ -1981,12 +2024,12 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
@@ -2085,12 +2128,12 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
@@ -2187,12 +2230,12 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
@@ -2299,12 +2342,12 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
@@ -2401,12 +2444,12 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
@@ -2503,12 +2546,12 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
@@ -2605,12 +2648,12 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
@@ -2707,12 +2750,12 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="26" t="s">
+      <c r="A118" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
@@ -2809,12 +2852,12 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="26" t="s">
+      <c r="A127" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
@@ -2911,12 +2954,12 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="26" t="s">
+      <c r="A136" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
@@ -3013,12 +3056,12 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="26" t="s">
+      <c r="A145" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="26"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
@@ -3049,7 +3092,9 @@
       <c r="B148" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C148" s="25"/>
+      <c r="C148" s="25" t="s">
+        <v>187</v>
+      </c>
       <c r="D148" s="8"/>
     </row>
     <row r="149" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3059,7 +3104,9 @@
       <c r="B149" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C149" s="25"/>
+      <c r="C149" s="25" t="s">
+        <v>188</v>
+      </c>
       <c r="D149" s="8"/>
     </row>
     <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3069,7 +3116,9 @@
       <c r="B150" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C150" s="25"/>
+      <c r="C150" s="25" t="s">
+        <v>189</v>
+      </c>
       <c r="D150" s="8"/>
     </row>
     <row r="151" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3079,7 +3128,9 @@
       <c r="B151" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C151" s="25"/>
+      <c r="C151" s="26" t="s">
+        <v>99</v>
+      </c>
       <c r="D151" s="8"/>
     </row>
     <row r="152" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3089,7 +3140,9 @@
       <c r="B152" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C152" s="8"/>
+      <c r="C152" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="D152" s="8"/>
     </row>
     <row r="153" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3099,39 +3152,113 @@
       <c r="B153" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C153" s="25"/>
+      <c r="C153" s="26" t="s">
+        <v>99</v>
+      </c>
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="26" t="s">
+      <c r="A154" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+    </row>
+    <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+    </row>
+    <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C157" s="26"/>
+      <c r="D157" s="8"/>
+    </row>
+    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C158" s="26"/>
+      <c r="D158" s="8"/>
+    </row>
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C159" s="26"/>
+      <c r="D159" s="8"/>
+    </row>
+    <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C160" s="26"/>
+      <c r="D160" s="8"/>
+    </row>
+    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+    </row>
+    <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C162" s="26"/>
+      <c r="D162" s="8"/>
+    </row>
+    <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A163" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A145:D145"/>
+  <mergeCells count="37">
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A163:D163"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A74:D74"/>
@@ -3147,6 +3274,26 @@
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A145:D145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="205">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -804,6 +804,38 @@
   </si>
   <si>
     <t>辅助录入数据库（布料表）的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.25 第九周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续录入数据库（布料表）的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登录后台代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成录入数据库（专辑表）的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成录入数据库（专辑表）的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成录入数据库（评论表）的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +923,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -969,6 +1001,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -978,14 +1013,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1393,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1408,20 +1443,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1510,20 +1545,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1600,20 +1635,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1702,20 +1737,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1816,20 +1851,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1922,20 +1957,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2024,20 +2059,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2128,20 +2163,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2230,20 +2265,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2342,20 +2377,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2444,20 +2479,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2546,20 +2581,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2648,20 +2683,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="27" t="s">
+      <c r="A110" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2750,20 +2785,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="27" t="s">
+      <c r="A119" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -2852,20 +2887,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="27" t="s">
+      <c r="A128" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -2954,20 +2989,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="29" t="s">
+      <c r="A136" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="27" t="s">
+      <c r="A137" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3056,20 +3091,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="29" t="s">
+      <c r="A145" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="27" t="s">
+      <c r="A146" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3158,20 +3193,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="29" t="s">
+      <c r="A154" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3194,7 +3229,9 @@
       <c r="B157" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C157" s="26"/>
+      <c r="C157" s="26" t="s">
+        <v>197</v>
+      </c>
       <c r="D157" s="8"/>
     </row>
     <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3204,7 +3241,9 @@
       <c r="B158" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C158" s="26"/>
+      <c r="C158" s="26" t="s">
+        <v>197</v>
+      </c>
       <c r="D158" s="8"/>
     </row>
     <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3214,7 +3253,9 @@
       <c r="B159" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C159" s="26"/>
+      <c r="C159" s="26" t="s">
+        <v>198</v>
+      </c>
       <c r="D159" s="8"/>
     </row>
     <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3224,7 +3265,9 @@
       <c r="B160" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C160" s="26"/>
+      <c r="C160" s="26" t="s">
+        <v>198</v>
+      </c>
       <c r="D160" s="8"/>
     </row>
     <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3234,7 +3277,9 @@
       <c r="B161" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C161" s="8"/>
+      <c r="C161" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="D161" s="8"/>
     </row>
     <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3244,19 +3289,134 @@
       <c r="B162" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="26"/>
+      <c r="C162" s="26" t="s">
+        <v>197</v>
+      </c>
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="29" t="s">
+      <c r="A163" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+    </row>
+    <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B164" s="29"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
+    </row>
+    <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C166" s="27"/>
+      <c r="D166" s="8"/>
+    </row>
+    <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C167" s="27"/>
+      <c r="D167" s="8"/>
+    </row>
+    <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C168" s="27"/>
+      <c r="D168" s="8"/>
+    </row>
+    <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C169" s="27"/>
+      <c r="D169" s="8"/>
+    </row>
+    <row r="170" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+    </row>
+    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C171" s="27"/>
+      <c r="D171" s="8"/>
+    </row>
+    <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A172" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="A163:D163"/>
     <mergeCell ref="A56:D56"/>
@@ -3273,27 +3433,6 @@
     <mergeCell ref="A118:D118"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A145:D145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="207">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -836,6 +836,14 @@
   </si>
   <si>
     <t>完成录入数据库（评论表）的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,14 +1021,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1430,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
       <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
@@ -1443,12 +1451,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -1545,12 +1553,12 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
@@ -1635,12 +1643,12 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -1737,12 +1745,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
@@ -2377,7 +2385,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="33" t="s">
         <v>111</v>
       </c>
       <c r="B82" s="30"/>
@@ -3331,7 +3339,9 @@
       <c r="B166" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C166" s="27"/>
+      <c r="C166" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="D166" s="8"/>
     </row>
     <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3341,7 +3351,9 @@
       <c r="B167" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C167" s="27"/>
+      <c r="C167" s="27" t="s">
+        <v>206</v>
+      </c>
       <c r="D167" s="8"/>
     </row>
     <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3351,7 +3363,9 @@
       <c r="B168" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C168" s="27"/>
+      <c r="C168" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="D168" s="8"/>
     </row>
     <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3361,7 +3375,9 @@
       <c r="B169" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C169" s="27"/>
+      <c r="C169" s="27" t="s">
+        <v>206</v>
+      </c>
       <c r="D169" s="8"/>
     </row>
     <row r="170" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3371,7 +3387,9 @@
       <c r="B170" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C170" s="8"/>
+      <c r="C170" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="D170" s="8"/>
     </row>
     <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3381,7 +3399,9 @@
       <c r="B171" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C171" s="27"/>
+      <c r="C171" s="27" t="s">
+        <v>206</v>
+      </c>
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3394,22 +3414,21 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A145:D145"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A47:D47"/>
@@ -3417,22 +3436,23 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A163:D163"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A163:D163"/>
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A136:D136"/>
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="214">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -844,6 +844,34 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.30 第十周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写APP“我的资料”主页面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写APP“我的资料-设置”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入设计标签数据到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“我的资料-个人资料”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写“我的资料-个人资料”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写APP“我的资料-设置”界面代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +959,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1012,20 +1040,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1436,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1459,12 +1490,12 @@
       <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1553,20 +1584,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1643,20 +1674,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1745,20 +1776,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1859,20 +1890,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1965,20 +1996,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2067,20 +2098,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2171,20 +2202,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2273,20 +2304,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2385,20 +2416,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2487,20 +2518,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2589,20 +2620,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2691,20 +2722,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="28" t="s">
+      <c r="A110" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2793,20 +2824,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -2895,20 +2926,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -2997,20 +3028,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="30" t="s">
+      <c r="A136" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="28" t="s">
+      <c r="A137" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3099,20 +3130,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="30" t="s">
+      <c r="A145" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="28" t="s">
+      <c r="A146" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3201,20 +3232,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="30" t="s">
+      <c r="A154" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="30"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="28" t="s">
+      <c r="A155" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="29"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3303,20 +3334,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="30" t="s">
+      <c r="A163" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="28" t="s">
+      <c r="A164" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3405,27 +3436,120 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="30" t="s">
+      <c r="A172" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+    </row>
+    <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B173" s="31"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+    </row>
+    <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A174" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C175" s="28"/>
+      <c r="D175" s="8"/>
+    </row>
+    <row r="176" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C176" s="28"/>
+      <c r="D176" s="8"/>
+    </row>
+    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C177" s="28"/>
+      <c r="D177" s="8"/>
+    </row>
+    <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C178" s="28"/>
+      <c r="D178" s="8"/>
+    </row>
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+    </row>
+    <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C180" s="28"/>
+      <c r="D180" s="8"/>
+    </row>
+    <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A181" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="29"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
+  <mergeCells count="41">
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:D127"/>
     <mergeCell ref="A145:D145"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A19:D19"/>
@@ -3440,19 +3564,18 @@
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="217">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -872,6 +872,18 @@
   </si>
   <si>
     <t>辅助编写APP“我的资料-设置”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,23 +1055,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1469,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1482,20 +1494,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1584,20 +1596,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1674,20 +1686,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1776,20 +1788,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1890,20 +1902,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1996,20 +2008,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2098,20 +2110,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2202,20 +2214,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2304,20 +2316,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2416,20 +2428,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2518,20 +2530,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2620,20 +2632,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2722,20 +2734,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2824,20 +2836,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -2926,20 +2938,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3028,20 +3040,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="29" t="s">
+      <c r="A136" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="30" t="s">
+      <c r="A137" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3130,20 +3142,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="29" t="s">
+      <c r="A145" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3232,20 +3244,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="29" t="s">
+      <c r="A154" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="30" t="s">
+      <c r="A155" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3334,20 +3346,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="29" t="s">
+      <c r="A163" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="30" t="s">
+      <c r="A164" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
-      <c r="D164" s="31"/>
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3436,20 +3448,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="29" t="s">
+      <c r="A172" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="29"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="30" t="s">
+      <c r="A173" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3472,7 +3484,9 @@
       <c r="B175" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C175" s="28"/>
+      <c r="C175" s="28" t="s">
+        <v>214</v>
+      </c>
       <c r="D175" s="8"/>
     </row>
     <row r="176" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3482,7 +3496,9 @@
       <c r="B176" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C176" s="28"/>
+      <c r="C176" s="28" t="s">
+        <v>214</v>
+      </c>
       <c r="D176" s="8"/>
     </row>
     <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3492,7 +3508,9 @@
       <c r="B177" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C177" s="28"/>
+      <c r="C177" s="28" t="s">
+        <v>215</v>
+      </c>
       <c r="D177" s="8"/>
     </row>
     <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3502,7 +3520,9 @@
       <c r="B178" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C178" s="28"/>
+      <c r="C178" s="28" t="s">
+        <v>214</v>
+      </c>
       <c r="D178" s="8"/>
     </row>
     <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3512,7 +3532,9 @@
       <c r="B179" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C179" s="8"/>
+      <c r="C179" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="D179" s="8"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3522,25 +3544,44 @@
       <c r="B180" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C180" s="28"/>
+      <c r="C180" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="29" t="s">
+      <c r="A181" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="29"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A56:D56"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A155:D155"/>
@@ -3551,31 +3592,14 @@
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A64:D64"/>
     <mergeCell ref="A110:D110"/>
     <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="223">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -884,6 +884,30 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.31 第十周 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续编写APP“我的资料”主页面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续编写APP“我的资料-设置”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“我的资料-个人资料-更换邮箱1”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“我的资料-个人资料-更换邮箱2”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写“我的资料-个人资料-更换邮箱2”界面代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,7 +995,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1055,6 +1079,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,14 +1091,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1479,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1502,12 +1529,12 @@
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1596,20 +1623,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1686,20 +1713,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1788,20 +1815,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1902,20 +1929,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2008,20 +2035,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2110,20 +2137,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2214,20 +2241,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2316,20 +2343,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2431,17 +2458,17 @@
       <c r="A82" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2530,20 +2557,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2632,20 +2659,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="29" t="s">
+      <c r="A101" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2734,20 +2761,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2836,20 +2863,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="29" t="s">
+      <c r="A119" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -2938,20 +2965,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="31" t="s">
+      <c r="A127" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3040,20 +3067,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="31" t="s">
+      <c r="A136" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="29" t="s">
+      <c r="A137" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3142,20 +3169,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="31" t="s">
+      <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="29" t="s">
+      <c r="A146" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3244,20 +3271,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="31" t="s">
+      <c r="A154" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="29" t="s">
+      <c r="A155" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="30"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3346,20 +3373,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="31" t="s">
+      <c r="A163" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="29" t="s">
+      <c r="A164" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="30"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3448,20 +3475,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="31" t="s">
+      <c r="A172" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="31"/>
+      <c r="B172" s="32"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="32"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="29" t="s">
+      <c r="A173" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="30"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3550,38 +3577,113 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="31" t="s">
+      <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
+      <c r="B181" s="32"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="32"/>
+    </row>
+    <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B182" s="31"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+    </row>
+    <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A183" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C184" s="29"/>
+      <c r="D184" s="8"/>
+    </row>
+    <row r="185" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C185" s="29"/>
+      <c r="D185" s="8"/>
+    </row>
+    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C186" s="29"/>
+      <c r="D186" s="8"/>
+    </row>
+    <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C187" s="29"/>
+      <c r="D187" s="8"/>
+    </row>
+    <row r="188" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+    </row>
+    <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C189" s="29"/>
+      <c r="D189" s="8"/>
+    </row>
+    <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A190" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="32"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A56:D56"/>
+  <mergeCells count="43">
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A155:D155"/>
@@ -3594,12 +3696,29 @@
     <mergeCell ref="A145:D145"/>
     <mergeCell ref="A110:D110"/>
     <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="228">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -908,6 +908,26 @@
   </si>
   <si>
     <t>辅助编写“我的资料-个人资料-更换邮箱2”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.1 第十周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“我的资料”页面js与后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续编写“我的资料-个人资料-更换邮箱2”界面代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,7 +1015,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1082,6 +1102,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1091,14 +1114,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1506,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1521,20 +1544,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1623,20 +1646,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1713,20 +1736,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1815,20 +1838,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1929,20 +1952,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2035,20 +2058,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2137,20 +2160,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2241,20 +2264,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2343,20 +2366,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2455,20 +2478,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2557,20 +2580,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2659,20 +2682,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2761,20 +2784,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="32" t="s">
+      <c r="A109" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2863,20 +2886,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -2965,20 +2988,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="32" t="s">
+      <c r="A127" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3067,20 +3090,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="32" t="s">
+      <c r="A136" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="30" t="s">
+      <c r="A137" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3169,20 +3192,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="32" t="s">
+      <c r="A145" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="32"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="32"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3271,20 +3294,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="32" t="s">
+      <c r="A154" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="30" t="s">
+      <c r="A155" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3373,20 +3396,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="32" t="s">
+      <c r="A163" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="32"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="32"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="30" t="s">
+      <c r="A164" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
-      <c r="D164" s="31"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3475,20 +3498,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="32" t="s">
+      <c r="A172" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="32"/>
-      <c r="C172" s="32"/>
-      <c r="D172" s="32"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="30" t="s">
+      <c r="A173" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3577,20 +3600,20 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="32" t="s">
+      <c r="A181" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="32"/>
-      <c r="C181" s="32"/>
-      <c r="D181" s="32"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="30" t="s">
+      <c r="A182" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
+      <c r="B182" s="32"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="32"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -3613,7 +3636,9 @@
       <c r="B184" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C184" s="29"/>
+      <c r="C184" s="29" t="s">
+        <v>223</v>
+      </c>
       <c r="D184" s="8"/>
     </row>
     <row r="185" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3623,7 +3648,9 @@
       <c r="B185" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C185" s="29"/>
+      <c r="C185" s="29" t="s">
+        <v>224</v>
+      </c>
       <c r="D185" s="8"/>
     </row>
     <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3633,7 +3660,9 @@
       <c r="B186" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C186" s="29"/>
+      <c r="C186" s="29" t="s">
+        <v>224</v>
+      </c>
       <c r="D186" s="8"/>
     </row>
     <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3643,7 +3672,9 @@
       <c r="B187" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C187" s="29"/>
+      <c r="C187" s="29" t="s">
+        <v>224</v>
+      </c>
       <c r="D187" s="8"/>
     </row>
     <row r="188" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3653,7 +3684,9 @@
       <c r="B188" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C188" s="8"/>
+      <c r="C188" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="D188" s="8"/>
     </row>
     <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3663,39 +3696,125 @@
       <c r="B189" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C189" s="29"/>
+      <c r="C189" s="29" t="s">
+        <v>224</v>
+      </c>
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="32" t="s">
+      <c r="A190" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="32"/>
-      <c r="C190" s="32"/>
-      <c r="D190" s="32"/>
+      <c r="B190" s="33"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="33"/>
+    </row>
+    <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B191" s="32"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="32"/>
+    </row>
+    <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C193" s="30"/>
+      <c r="D193" s="8"/>
+    </row>
+    <row r="194" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C194" s="30"/>
+      <c r="D194" s="8"/>
+    </row>
+    <row r="195" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C195" s="30"/>
+      <c r="D195" s="8"/>
+    </row>
+    <row r="196" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C196" s="30"/>
+      <c r="D196" s="8"/>
+    </row>
+    <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
+    </row>
+    <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C198" s="30"/>
+      <c r="D198" s="8"/>
+    </row>
+    <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A199" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="33"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A118:D118"/>
+  <mergeCells count="45">
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A19:D19"/>
@@ -3707,18 +3826,26 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="237">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -928,6 +928,42 @@
   </si>
   <si>
     <t>继续编写“我的资料-个人资料-更换邮箱2”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续编写“我的资料”页面js与后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续编写“我的资料-个人资料-更换邮箱1”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“我的资料-设置2”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“我的资料-个人资料-更换邮箱3”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写“我的资料-个人资料-更换邮箱1”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写“我的资料-个人资料-更换邮箱3”界面代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,7 +1051,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1105,6 +1141,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,14 +1153,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1529,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1544,20 +1583,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1646,20 +1685,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1736,20 +1775,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1838,20 +1877,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1952,20 +1991,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2058,20 +2097,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2160,20 +2199,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2264,20 +2303,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2366,20 +2405,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2478,20 +2517,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="36" t="s">
+      <c r="A82" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2580,20 +2619,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2682,20 +2721,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="33" t="s">
+      <c r="A100" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2784,20 +2823,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="33" t="s">
+      <c r="A109" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
+      <c r="A110" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2886,20 +2925,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="31" t="s">
+      <c r="A119" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -2988,20 +3027,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="33" t="s">
+      <c r="A127" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="31" t="s">
+      <c r="A128" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="32"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3090,20 +3129,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="33" t="s">
+      <c r="A136" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="33"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="32"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3192,20 +3231,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="33" t="s">
+      <c r="A145" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="33"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
+      <c r="B145" s="34"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="31" t="s">
+      <c r="A146" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="32"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3294,20 +3333,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="33" t="s">
+      <c r="A154" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="33"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="34"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="31" t="s">
+      <c r="A155" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
+      <c r="B155" s="33"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3396,20 +3435,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="33" t="s">
+      <c r="A163" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="33"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="34"/>
+      <c r="D163" s="34"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="31" t="s">
+      <c r="A164" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="32"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="32"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3498,20 +3537,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="33" t="s">
+      <c r="A172" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="33"/>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
+      <c r="B172" s="34"/>
+      <c r="C172" s="34"/>
+      <c r="D172" s="34"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="s">
+      <c r="A173" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="32"/>
-      <c r="C173" s="32"/>
-      <c r="D173" s="32"/>
+      <c r="B173" s="33"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3600,20 +3639,20 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="33" t="s">
+      <c r="A181" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
+      <c r="B181" s="34"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="34"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="31" t="s">
+      <c r="A182" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="32"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="32"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -3702,20 +3741,20 @@
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="33" t="s">
+      <c r="A190" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="33"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
+      <c r="B190" s="34"/>
+      <c r="C190" s="34"/>
+      <c r="D190" s="34"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="31" t="s">
+      <c r="A191" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="32"/>
-      <c r="C191" s="32"/>
-      <c r="D191" s="32"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -3738,7 +3777,9 @@
       <c r="B193" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C193" s="30"/>
+      <c r="C193" s="30" t="s">
+        <v>228</v>
+      </c>
       <c r="D193" s="8"/>
     </row>
     <row r="194" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3748,7 +3789,9 @@
       <c r="B194" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C194" s="30"/>
+      <c r="C194" s="30" t="s">
+        <v>229</v>
+      </c>
       <c r="D194" s="8"/>
     </row>
     <row r="195" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3758,7 +3801,9 @@
       <c r="B195" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C195" s="30"/>
+      <c r="C195" s="30" t="s">
+        <v>230</v>
+      </c>
       <c r="D195" s="8"/>
     </row>
     <row r="196" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3768,7 +3813,9 @@
       <c r="B196" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C196" s="30"/>
+      <c r="C196" s="31" t="s">
+        <v>99</v>
+      </c>
       <c r="D196" s="8"/>
     </row>
     <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3778,7 +3825,9 @@
       <c r="B197" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C197" s="8"/>
+      <c r="C197" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="D197" s="8"/>
     </row>
     <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3788,33 +3837,126 @@
       <c r="B198" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C198" s="30"/>
+      <c r="C198" s="31" t="s">
+        <v>99</v>
+      </c>
       <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="33" t="s">
+      <c r="A199" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="33"/>
-      <c r="C199" s="33"/>
-      <c r="D199" s="33"/>
+      <c r="B199" s="34"/>
+      <c r="C199" s="34"/>
+      <c r="D199" s="34"/>
+    </row>
+    <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B200" s="33"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+    </row>
+    <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C202" s="31"/>
+      <c r="D202" s="8"/>
+    </row>
+    <row r="203" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C203" s="31"/>
+      <c r="D203" s="8"/>
+    </row>
+    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C204" s="31"/>
+      <c r="D204" s="8"/>
+    </row>
+    <row r="205" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C205" s="31"/>
+      <c r="D205" s="8"/>
+    </row>
+    <row r="206" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+    </row>
+    <row r="207" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C207" s="31"/>
+      <c r="D207" s="8"/>
+    </row>
+    <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A208" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="34"/>
+      <c r="C208" s="34"/>
+      <c r="D208" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
+  <mergeCells count="47">
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A118:D118"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A19:D19"/>
@@ -3826,6 +3968,20 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A163:D163"/>
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A128:D128"/>
@@ -3833,19 +3989,6 @@
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="248">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -964,6 +964,50 @@
   </si>
   <si>
     <t>辅助编写“我的资料-个人资料-更换邮箱3”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.6 第十一周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续编写“我的资料-设置2”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写更换密码1界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写更换密码2界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写更换密码1界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写更换密码2界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“我的资料-更换电话”界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1095,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1144,6 +1188,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1153,14 +1200,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1568,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1583,20 +1630,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1685,20 +1732,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1775,20 +1822,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1877,20 +1924,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1991,20 +2038,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2097,20 +2144,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2199,20 +2246,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2303,20 +2350,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2405,20 +2452,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2517,20 +2564,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2619,20 +2666,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2721,20 +2768,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="34" t="s">
+      <c r="A100" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2823,20 +2870,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2925,20 +2972,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="32" t="s">
+      <c r="A119" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -3027,20 +3074,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="34" t="s">
+      <c r="A127" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="34"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="32" t="s">
+      <c r="A128" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3129,20 +3176,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="34" t="s">
+      <c r="A136" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="34"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="32" t="s">
+      <c r="A137" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="33"/>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3231,20 +3278,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="34" t="s">
+      <c r="A145" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="32" t="s">
+      <c r="A146" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="33"/>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3333,20 +3380,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="34" t="s">
+      <c r="A154" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="34"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="35"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="32" t="s">
+      <c r="A155" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="33"/>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="34"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3435,20 +3482,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="34" t="s">
+      <c r="A163" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="34"/>
-      <c r="C163" s="34"/>
-      <c r="D163" s="34"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="35"/>
+      <c r="D163" s="35"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="32" t="s">
+      <c r="A164" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3537,20 +3584,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="34" t="s">
+      <c r="A172" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="34"/>
-      <c r="C172" s="34"/>
-      <c r="D172" s="34"/>
+      <c r="B172" s="35"/>
+      <c r="C172" s="35"/>
+      <c r="D172" s="35"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="32" t="s">
+      <c r="A173" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="33"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
+      <c r="B173" s="34"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="34"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3639,20 +3686,20 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="34" t="s">
+      <c r="A181" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="34"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="34"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="35"/>
+      <c r="D181" s="35"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="32" t="s">
+      <c r="A182" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="34"/>
+      <c r="D182" s="34"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -3741,20 +3788,20 @@
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="34" t="s">
+      <c r="A190" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="34"/>
-      <c r="C190" s="34"/>
-      <c r="D190" s="34"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="35"/>
+      <c r="D190" s="35"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="32" t="s">
+      <c r="A191" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="33"/>
-      <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
+      <c r="B191" s="34"/>
+      <c r="C191" s="34"/>
+      <c r="D191" s="34"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -3843,20 +3890,20 @@
       <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="34" t="s">
+      <c r="A199" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="34"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="34"/>
+      <c r="B199" s="35"/>
+      <c r="C199" s="35"/>
+      <c r="D199" s="35"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="32" t="s">
+      <c r="A200" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="33"/>
-      <c r="C200" s="33"/>
-      <c r="D200" s="33"/>
+      <c r="B200" s="34"/>
+      <c r="C200" s="34"/>
+      <c r="D200" s="34"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
@@ -3879,7 +3926,9 @@
       <c r="B202" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C202" s="31"/>
+      <c r="C202" s="31" t="s">
+        <v>237</v>
+      </c>
       <c r="D202" s="8"/>
     </row>
     <row r="203" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3889,7 +3938,9 @@
       <c r="B203" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C203" s="31"/>
+      <c r="C203" s="31" t="s">
+        <v>238</v>
+      </c>
       <c r="D203" s="8"/>
     </row>
     <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3899,7 +3950,9 @@
       <c r="B204" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C204" s="31"/>
+      <c r="C204" s="31" t="s">
+        <v>239</v>
+      </c>
       <c r="D204" s="8"/>
     </row>
     <row r="205" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3909,7 +3962,9 @@
       <c r="B205" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C205" s="31"/>
+      <c r="C205" s="31" t="s">
+        <v>240</v>
+      </c>
       <c r="D205" s="8"/>
     </row>
     <row r="206" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3919,7 +3974,9 @@
       <c r="B206" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C206" s="8"/>
+      <c r="C206" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="D206" s="8"/>
     </row>
     <row r="207" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3929,34 +3986,125 @@
       <c r="B207" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C207" s="31"/>
+      <c r="C207" s="32" t="s">
+        <v>99</v>
+      </c>
       <c r="D207" s="8"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="34" t="s">
+      <c r="A208" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="34"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="34"/>
+      <c r="B208" s="35"/>
+      <c r="C208" s="35"/>
+      <c r="D208" s="35"/>
+    </row>
+    <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B209" s="34"/>
+      <c r="C209" s="34"/>
+      <c r="D209" s="34"/>
+    </row>
+    <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A210" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C211" s="32"/>
+      <c r="D211" s="8"/>
+    </row>
+    <row r="212" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C212" s="32"/>
+      <c r="D212" s="8"/>
+    </row>
+    <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C213" s="32"/>
+      <c r="D213" s="8"/>
+    </row>
+    <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C214" s="32"/>
+      <c r="D214" s="8"/>
+    </row>
+    <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+    </row>
+    <row r="216" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C216" s="32"/>
+      <c r="D216" s="8"/>
+    </row>
+    <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A217" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="35"/>
+      <c r="C217" s="35"/>
+      <c r="D217" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A118:D118"/>
+  <mergeCells count="49">
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A19:D19"/>
@@ -3968,20 +4116,15 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A118:D118"/>
     <mergeCell ref="A163:D163"/>
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A128:D128"/>
@@ -3989,6 +4132,14 @@
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D199"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="256">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1008,6 +1008,38 @@
   </si>
   <si>
     <t>编写“我的资料-更换电话”界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.8 第十一周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“我的资料-设置3”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“设计师-分类”界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“设计师-列表”界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写“设计师-列表”界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写“设计师-分类”界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“首页-资讯”页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1127,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1191,6 +1223,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1200,14 +1235,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1615,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1630,20 +1665,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1732,20 +1767,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1822,20 +1857,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1924,20 +1959,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -2038,20 +2073,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2144,20 +2179,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2246,20 +2281,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2350,20 +2385,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2452,20 +2487,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2564,20 +2599,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2666,20 +2701,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2768,20 +2803,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="35" t="s">
+      <c r="A100" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="33" t="s">
+      <c r="A101" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2870,20 +2905,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="33" t="s">
+      <c r="A110" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -2972,20 +3007,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
+      <c r="A119" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -3074,20 +3109,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="35" t="s">
+      <c r="A127" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="33" t="s">
+      <c r="A128" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3176,20 +3211,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="35" t="s">
+      <c r="A136" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="35"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="33" t="s">
+      <c r="A137" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3278,20 +3313,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="35" t="s">
+      <c r="A145" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="35"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="33" t="s">
+      <c r="A146" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3380,20 +3415,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="35" t="s">
+      <c r="A154" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="35"/>
-      <c r="C154" s="35"/>
-      <c r="D154" s="35"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="36"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="33" t="s">
+      <c r="A155" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="34"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="34"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="35"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3482,20 +3517,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="35" t="s">
+      <c r="A163" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="35"/>
-      <c r="C163" s="35"/>
-      <c r="D163" s="35"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="36"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="33" t="s">
+      <c r="A164" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="34"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34"/>
+      <c r="B164" s="35"/>
+      <c r="C164" s="35"/>
+      <c r="D164" s="35"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3584,20 +3619,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="35" t="s">
+      <c r="A172" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="35"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="35"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="33" t="s">
+      <c r="A173" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="34"/>
-      <c r="C173" s="34"/>
-      <c r="D173" s="34"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="35"/>
+      <c r="D173" s="35"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3686,20 +3721,20 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="35" t="s">
+      <c r="A181" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="35"/>
-      <c r="C181" s="35"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="36"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="33" t="s">
+      <c r="A182" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="34"/>
-      <c r="C182" s="34"/>
-      <c r="D182" s="34"/>
+      <c r="B182" s="35"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -3788,20 +3823,20 @@
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="35" t="s">
+      <c r="A190" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="35"/>
-      <c r="C190" s="35"/>
-      <c r="D190" s="35"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="36"/>
+      <c r="D190" s="36"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="33" t="s">
+      <c r="A191" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="34"/>
-      <c r="C191" s="34"/>
-      <c r="D191" s="34"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="35"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -3890,20 +3925,20 @@
       <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="35" t="s">
+      <c r="A199" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="35"/>
-      <c r="C199" s="35"/>
-      <c r="D199" s="35"/>
+      <c r="B199" s="36"/>
+      <c r="C199" s="36"/>
+      <c r="D199" s="36"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="33" t="s">
+      <c r="A200" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="34"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="34"/>
+      <c r="B200" s="35"/>
+      <c r="C200" s="35"/>
+      <c r="D200" s="35"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
@@ -3992,20 +4027,20 @@
       <c r="D207" s="8"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="35" t="s">
+      <c r="A208" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="35"/>
-      <c r="C208" s="35"/>
-      <c r="D208" s="35"/>
+      <c r="B208" s="36"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="36"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="33" t="s">
+      <c r="A209" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="B209" s="34"/>
-      <c r="C209" s="34"/>
-      <c r="D209" s="34"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="35"/>
+      <c r="D209" s="35"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
@@ -4028,7 +4063,9 @@
       <c r="B211" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C211" s="32"/>
+      <c r="C211" s="32" t="s">
+        <v>248</v>
+      </c>
       <c r="D211" s="8"/>
     </row>
     <row r="212" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4038,7 +4075,9 @@
       <c r="B212" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C212" s="32"/>
+      <c r="C212" s="32" t="s">
+        <v>248</v>
+      </c>
       <c r="D212" s="8"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4048,7 +4087,9 @@
       <c r="B213" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C213" s="32"/>
+      <c r="C213" s="33" t="s">
+        <v>248</v>
+      </c>
       <c r="D213" s="8"/>
     </row>
     <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4058,7 +4099,9 @@
       <c r="B214" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C214" s="32"/>
+      <c r="C214" s="33" t="s">
+        <v>248</v>
+      </c>
       <c r="D214" s="8"/>
     </row>
     <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4068,7 +4111,9 @@
       <c r="B215" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C215" s="8"/>
+      <c r="C215" s="33" t="s">
+        <v>248</v>
+      </c>
       <c r="D215" s="8"/>
     </row>
     <row r="216" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4078,33 +4123,130 @@
       <c r="B216" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C216" s="32"/>
+      <c r="C216" s="33" t="s">
+        <v>248</v>
+      </c>
       <c r="D216" s="8"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A217" s="35" t="s">
+      <c r="A217" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="35"/>
-      <c r="C217" s="35"/>
-      <c r="D217" s="35"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="36"/>
+      <c r="D217" s="36"/>
+    </row>
+    <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B218" s="35"/>
+      <c r="C218" s="35"/>
+      <c r="D218" s="35"/>
+    </row>
+    <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A219" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C220" s="33"/>
+      <c r="D220" s="8"/>
+    </row>
+    <row r="221" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C221" s="33"/>
+      <c r="D221" s="8"/>
+    </row>
+    <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C222" s="33"/>
+      <c r="D222" s="8"/>
+    </row>
+    <row r="223" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C223" s="33"/>
+      <c r="D223" s="8"/>
+    </row>
+    <row r="224" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A224" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C224" s="33"/>
+      <c r="D224" s="8"/>
+    </row>
+    <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C225" s="33"/>
+      <c r="D225" s="8"/>
+    </row>
+    <row r="226" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A226" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="36"/>
+      <c r="C226" s="36"/>
+      <c r="D226" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
+  <mergeCells count="51">
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A145:D145"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A19:D19"/>
@@ -4116,6 +4258,20 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A172:D172"/>
     <mergeCell ref="A146:D146"/>
@@ -4123,23 +4279,6 @@
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A199:D199"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="263">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1040,6 +1040,34 @@
   </si>
   <si>
     <t>编写“首页-资讯”页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.13 第十二周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善“首页-设计师”页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“我的资料-我的专辑”界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“我的资料-购买记录”界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改数据库数据格式，重新录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写“我的资料-购买记录”界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1155,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1226,6 +1254,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1235,14 +1266,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1650,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D226"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1665,20 +1696,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1767,20 +1798,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1857,20 +1888,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1959,20 +1990,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -2073,20 +2104,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2179,20 +2210,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2281,20 +2312,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2385,20 +2416,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2487,20 +2518,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2599,20 +2630,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2701,20 +2732,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2803,20 +2834,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="36" t="s">
+      <c r="A100" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2905,20 +2936,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="36" t="s">
+      <c r="A109" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="35"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -3007,20 +3038,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="36" t="s">
+      <c r="A118" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="34" t="s">
+      <c r="A119" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="35"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -3109,20 +3140,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="36" t="s">
+      <c r="A127" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="36"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="36"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="34" t="s">
+      <c r="A128" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="35"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3211,20 +3242,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="36" t="s">
+      <c r="A136" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="36"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="36"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="34" t="s">
+      <c r="A137" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="35"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3313,20 +3344,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="36" t="s">
+      <c r="A145" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
+      <c r="B145" s="37"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="34" t="s">
+      <c r="A146" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="35"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3415,20 +3446,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="36" t="s">
+      <c r="A154" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="36"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="36"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="35"/>
-      <c r="C155" s="35"/>
-      <c r="D155" s="35"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="36"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3517,20 +3548,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="36" t="s">
+      <c r="A163" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="36"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="36"/>
+      <c r="B163" s="37"/>
+      <c r="C163" s="37"/>
+      <c r="D163" s="37"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="34" t="s">
+      <c r="A164" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="35"/>
-      <c r="C164" s="35"/>
-      <c r="D164" s="35"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="36"/>
+      <c r="D164" s="36"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3619,20 +3650,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="36" t="s">
+      <c r="A172" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="36"/>
-      <c r="C172" s="36"/>
-      <c r="D172" s="36"/>
+      <c r="B172" s="37"/>
+      <c r="C172" s="37"/>
+      <c r="D172" s="37"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="34" t="s">
+      <c r="A173" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="35"/>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3721,20 +3752,20 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="36" t="s">
+      <c r="A181" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="36"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="36"/>
+      <c r="B181" s="37"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="34" t="s">
+      <c r="A182" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="35"/>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -3823,20 +3854,20 @@
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="36" t="s">
+      <c r="A190" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="36"/>
-      <c r="C190" s="36"/>
-      <c r="D190" s="36"/>
+      <c r="B190" s="37"/>
+      <c r="C190" s="37"/>
+      <c r="D190" s="37"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="34" t="s">
+      <c r="A191" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="35"/>
-      <c r="C191" s="35"/>
-      <c r="D191" s="35"/>
+      <c r="B191" s="36"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="36"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -3925,20 +3956,20 @@
       <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="36" t="s">
+      <c r="A199" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="36"/>
-      <c r="C199" s="36"/>
-      <c r="D199" s="36"/>
+      <c r="B199" s="37"/>
+      <c r="C199" s="37"/>
+      <c r="D199" s="37"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="34" t="s">
+      <c r="A200" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="35"/>
-      <c r="C200" s="35"/>
-      <c r="D200" s="35"/>
+      <c r="B200" s="36"/>
+      <c r="C200" s="36"/>
+      <c r="D200" s="36"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
@@ -4027,20 +4058,20 @@
       <c r="D207" s="8"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="36" t="s">
+      <c r="A208" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="36"/>
-      <c r="C208" s="36"/>
-      <c r="D208" s="36"/>
+      <c r="B208" s="37"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="37"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="34" t="s">
+      <c r="A209" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="B209" s="35"/>
-      <c r="C209" s="35"/>
-      <c r="D209" s="35"/>
+      <c r="B209" s="36"/>
+      <c r="C209" s="36"/>
+      <c r="D209" s="36"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
@@ -4129,20 +4160,20 @@
       <c r="D216" s="8"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A217" s="36" t="s">
+      <c r="A217" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="36"/>
-      <c r="C217" s="36"/>
-      <c r="D217" s="36"/>
+      <c r="B217" s="37"/>
+      <c r="C217" s="37"/>
+      <c r="D217" s="37"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="34" t="s">
+      <c r="A218" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="B218" s="35"/>
-      <c r="C218" s="35"/>
-      <c r="D218" s="35"/>
+      <c r="B218" s="36"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="36"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
@@ -4165,7 +4196,9 @@
       <c r="B220" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C220" s="33"/>
+      <c r="C220" s="33" t="s">
+        <v>256</v>
+      </c>
       <c r="D220" s="8"/>
     </row>
     <row r="221" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4175,7 +4208,9 @@
       <c r="B221" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C221" s="33"/>
+      <c r="C221" s="34" t="s">
+        <v>99</v>
+      </c>
       <c r="D221" s="8"/>
     </row>
     <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4185,7 +4220,9 @@
       <c r="B222" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C222" s="33"/>
+      <c r="C222" s="34" t="s">
+        <v>99</v>
+      </c>
       <c r="D222" s="8"/>
     </row>
     <row r="223" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4195,7 +4232,9 @@
       <c r="B223" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C223" s="33"/>
+      <c r="C223" s="34" t="s">
+        <v>99</v>
+      </c>
       <c r="D223" s="8"/>
     </row>
     <row r="224" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4205,7 +4244,9 @@
       <c r="B224" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C224" s="33"/>
+      <c r="C224" s="34" t="s">
+        <v>99</v>
+      </c>
       <c r="D224" s="8"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4215,25 +4256,140 @@
       <c r="B225" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C225" s="33"/>
+      <c r="C225" s="34" t="s">
+        <v>99</v>
+      </c>
       <c r="D225" s="8"/>
     </row>
     <row r="226" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A226" s="36" t="s">
+      <c r="A226" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="36"/>
-      <c r="C226" s="36"/>
-      <c r="D226" s="36"/>
+      <c r="B226" s="37"/>
+      <c r="C226" s="37"/>
+      <c r="D226" s="37"/>
+    </row>
+    <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B227" s="36"/>
+      <c r="C227" s="36"/>
+      <c r="D227" s="36"/>
+    </row>
+    <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A228" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C229" s="34"/>
+      <c r="D229" s="8"/>
+    </row>
+    <row r="230" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C230" s="34"/>
+      <c r="D230" s="8"/>
+    </row>
+    <row r="231" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C231" s="34"/>
+      <c r="D231" s="8"/>
+    </row>
+    <row r="232" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C232" s="34"/>
+      <c r="D232" s="8"/>
+    </row>
+    <row r="233" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C233" s="34"/>
+      <c r="D233" s="8"/>
+    </row>
+    <row r="234" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C234" s="34"/>
+      <c r="D234" s="8"/>
+    </row>
+    <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A235" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="37"/>
+      <c r="C235" s="37"/>
+      <c r="D235" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
+  <mergeCells count="53">
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A56:D56"/>
     <mergeCell ref="A173:D173"/>
     <mergeCell ref="A181:D181"/>
     <mergeCell ref="A191:D191"/>
@@ -4247,38 +4403,17 @@
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A172:D172"/>
     <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A217:D217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="272">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1068,6 +1068,42 @@
   </si>
   <si>
     <t>辅助编写“我的资料-购买记录”界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.15 第十二周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成“首页-设计师”页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“我的资料-我的收藏-收藏详情”界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“品牌服装-综合排序”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写“品牌服装-综合排序”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“品牌服装-筛选”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写“品牌服装-筛选”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1191,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1257,23 +1293,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1681,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1696,20 +1735,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1798,20 +1837,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1888,20 +1927,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1990,20 +2029,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -2104,20 +2143,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2210,20 +2249,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2312,20 +2351,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2416,20 +2455,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2518,20 +2557,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2630,20 +2669,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2732,20 +2771,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2834,20 +2873,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="37" t="s">
+      <c r="A100" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="35" t="s">
+      <c r="A101" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -2936,20 +2975,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="35" t="s">
+      <c r="A110" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="36"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -3038,20 +3077,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="37" t="s">
+      <c r="A118" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="37"/>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="35" t="s">
+      <c r="A119" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -3140,20 +3179,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="37" t="s">
+      <c r="A127" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="35" t="s">
+      <c r="A128" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="38"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3242,20 +3281,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="37" t="s">
+      <c r="A136" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="37"/>
-      <c r="C136" s="37"/>
-      <c r="D136" s="37"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="35" t="s">
+      <c r="A137" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="36"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="36"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3344,20 +3383,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="37" t="s">
+      <c r="A145" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="37"/>
-      <c r="C145" s="37"/>
-      <c r="D145" s="37"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="35" t="s">
+      <c r="A146" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="36"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="36"/>
+      <c r="B146" s="38"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="38"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3446,20 +3485,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="37" t="s">
+      <c r="A154" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="37"/>
-      <c r="C154" s="37"/>
-      <c r="D154" s="37"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="36"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="35" t="s">
+      <c r="A155" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="36"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="36"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="38"/>
+      <c r="D155" s="38"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3548,20 +3587,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="37" t="s">
+      <c r="A163" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="37"/>
-      <c r="C163" s="37"/>
-      <c r="D163" s="37"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="36"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="35" t="s">
+      <c r="A164" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="36"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="36"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="38"/>
+      <c r="D164" s="38"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3650,20 +3689,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="37" t="s">
+      <c r="A172" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="37"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="37"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="35" t="s">
+      <c r="A173" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="36"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="36"/>
+      <c r="B173" s="38"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="38"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3752,20 +3791,20 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="37" t="s">
+      <c r="A181" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="37"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="37"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="36"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="35" t="s">
+      <c r="A182" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="36"/>
-      <c r="C182" s="36"/>
-      <c r="D182" s="36"/>
+      <c r="B182" s="38"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="38"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -3854,20 +3893,20 @@
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="37" t="s">
+      <c r="A190" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="37"/>
-      <c r="C190" s="37"/>
-      <c r="D190" s="37"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="36"/>
+      <c r="D190" s="36"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="35" t="s">
+      <c r="A191" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="36"/>
-      <c r="C191" s="36"/>
-      <c r="D191" s="36"/>
+      <c r="B191" s="38"/>
+      <c r="C191" s="38"/>
+      <c r="D191" s="38"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -3956,20 +3995,20 @@
       <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="37" t="s">
+      <c r="A199" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="37"/>
-      <c r="C199" s="37"/>
-      <c r="D199" s="37"/>
+      <c r="B199" s="36"/>
+      <c r="C199" s="36"/>
+      <c r="D199" s="36"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="35" t="s">
+      <c r="A200" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="36"/>
-      <c r="C200" s="36"/>
-      <c r="D200" s="36"/>
+      <c r="B200" s="38"/>
+      <c r="C200" s="38"/>
+      <c r="D200" s="38"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
@@ -4058,20 +4097,20 @@
       <c r="D207" s="8"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="37" t="s">
+      <c r="A208" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="37"/>
-      <c r="C208" s="37"/>
-      <c r="D208" s="37"/>
+      <c r="B208" s="36"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="36"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="35" t="s">
+      <c r="A209" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="B209" s="36"/>
-      <c r="C209" s="36"/>
-      <c r="D209" s="36"/>
+      <c r="B209" s="38"/>
+      <c r="C209" s="38"/>
+      <c r="D209" s="38"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
@@ -4160,20 +4199,20 @@
       <c r="D216" s="8"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A217" s="37" t="s">
+      <c r="A217" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="37"/>
-      <c r="C217" s="37"/>
-      <c r="D217" s="37"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="36"/>
+      <c r="D217" s="36"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="35" t="s">
+      <c r="A218" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="B218" s="36"/>
-      <c r="C218" s="36"/>
-      <c r="D218" s="36"/>
+      <c r="B218" s="38"/>
+      <c r="C218" s="38"/>
+      <c r="D218" s="38"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
@@ -4262,20 +4301,20 @@
       <c r="D225" s="8"/>
     </row>
     <row r="226" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A226" s="37" t="s">
+      <c r="A226" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="37"/>
-      <c r="C226" s="37"/>
-      <c r="D226" s="37"/>
+      <c r="B226" s="36"/>
+      <c r="C226" s="36"/>
+      <c r="D226" s="36"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="35" t="s">
+      <c r="A227" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="B227" s="36"/>
-      <c r="C227" s="36"/>
-      <c r="D227" s="36"/>
+      <c r="B227" s="38"/>
+      <c r="C227" s="38"/>
+      <c r="D227" s="38"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
@@ -4298,7 +4337,9 @@
       <c r="B229" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C229" s="34"/>
+      <c r="C229" s="34" t="s">
+        <v>263</v>
+      </c>
       <c r="D229" s="8"/>
     </row>
     <row r="230" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4308,7 +4349,9 @@
       <c r="B230" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C230" s="34"/>
+      <c r="C230" s="34" t="s">
+        <v>264</v>
+      </c>
       <c r="D230" s="8"/>
     </row>
     <row r="231" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4318,7 +4361,9 @@
       <c r="B231" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C231" s="34"/>
+      <c r="C231" s="34" t="s">
+        <v>264</v>
+      </c>
       <c r="D231" s="8"/>
     </row>
     <row r="232" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4328,7 +4373,9 @@
       <c r="B232" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C232" s="34"/>
+      <c r="C232" s="34" t="s">
+        <v>264</v>
+      </c>
       <c r="D232" s="8"/>
     </row>
     <row r="233" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4338,7 +4385,9 @@
       <c r="B233" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C233" s="34"/>
+      <c r="C233" s="34" t="s">
+        <v>264</v>
+      </c>
       <c r="D233" s="8"/>
     </row>
     <row r="234" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4348,37 +4397,127 @@
       <c r="B234" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C234" s="34"/>
+      <c r="C234" s="34" t="s">
+        <v>264</v>
+      </c>
       <c r="D234" s="8"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="37" t="s">
+      <c r="A235" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B235" s="37"/>
-      <c r="C235" s="37"/>
-      <c r="D235" s="37"/>
+      <c r="B235" s="36"/>
+      <c r="C235" s="36"/>
+      <c r="D235" s="36"/>
+    </row>
+    <row r="236" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="B236" s="38"/>
+      <c r="C236" s="38"/>
+      <c r="D236" s="38"/>
+    </row>
+    <row r="237" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A237" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C238" s="35"/>
+      <c r="D238" s="8"/>
+    </row>
+    <row r="239" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C239" s="35"/>
+      <c r="D239" s="8"/>
+    </row>
+    <row r="240" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C240" s="35"/>
+      <c r="D240" s="8"/>
+    </row>
+    <row r="241" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C241" s="35"/>
+      <c r="D241" s="8"/>
+    </row>
+    <row r="242" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A242" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C242" s="35"/>
+      <c r="D242" s="8"/>
+    </row>
+    <row r="243" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C243" s="35"/>
+      <c r="D243" s="8"/>
+    </row>
+    <row r="244" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A244" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="36"/>
+      <c r="C244" s="36"/>
+      <c r="D244" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
+  <mergeCells count="55">
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A19:D19"/>
@@ -4390,6 +4529,24 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A227:D227"/>
     <mergeCell ref="A173:D173"/>
     <mergeCell ref="A181:D181"/>
     <mergeCell ref="A191:D191"/>
@@ -4400,20 +4557,6 @@
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A217:D217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="282">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1087,23 +1087,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>编写“品牌服装-综合排序”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写“品牌服装-综合排序”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“品牌服装-筛选”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写“品牌服装-筛选”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成布料辅料与品牌服装首页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>编写“我的资料-我的收藏-收藏详情”界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编写“品牌服装-综合排序”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助编写“品牌服装-综合排序”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写“品牌服装-筛选”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助编写“品牌服装-筛选”</t>
+    <t>继续编写“收藏详情”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改数据库表“品牌服装”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改数据库表“布料辅料”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助修改数据库表“品牌服装”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助修改数据库表“布料辅料”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.20 第十三周 周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1191,7 +1231,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1297,7 +1337,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1305,14 +1345,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1720,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1735,12 +1778,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -1837,12 +1880,12 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
@@ -1927,12 +1970,12 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
@@ -2029,12 +2072,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
@@ -2143,12 +2186,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
@@ -2249,12 +2292,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
@@ -2351,12 +2394,12 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
@@ -2455,12 +2498,12 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
@@ -2557,12 +2600,12 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
@@ -2669,12 +2712,12 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
@@ -2771,12 +2814,12 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
@@ -2873,12 +2916,12 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="36" t="s">
+      <c r="A100" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A101" s="37" t="s">
@@ -2975,12 +3018,12 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="36" t="s">
+      <c r="A109" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A110" s="37" t="s">
@@ -3077,12 +3120,12 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="36" t="s">
+      <c r="A118" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A119" s="37" t="s">
@@ -3179,12 +3222,12 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="36" t="s">
+      <c r="A127" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="36"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="36"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A128" s="37" t="s">
@@ -3281,12 +3324,12 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="36" t="s">
+      <c r="A136" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="36"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="36"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A137" s="37" t="s">
@@ -3383,12 +3426,12 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="36" t="s">
+      <c r="A145" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="39"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A146" s="37" t="s">
@@ -3485,12 +3528,12 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="36" t="s">
+      <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="36"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="36"/>
+      <c r="B154" s="39"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="39"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A155" s="37" t="s">
@@ -3587,12 +3630,12 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="36" t="s">
+      <c r="A163" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="36"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="36"/>
+      <c r="B163" s="39"/>
+      <c r="C163" s="39"/>
+      <c r="D163" s="39"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A164" s="37" t="s">
@@ -3689,12 +3732,12 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="36" t="s">
+      <c r="A172" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="36"/>
-      <c r="C172" s="36"/>
-      <c r="D172" s="36"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A173" s="37" t="s">
@@ -3791,12 +3834,12 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="36" t="s">
+      <c r="A181" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="36"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="36"/>
+      <c r="B181" s="39"/>
+      <c r="C181" s="39"/>
+      <c r="D181" s="39"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A182" s="37" t="s">
@@ -3893,12 +3936,12 @@
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="36" t="s">
+      <c r="A190" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="36"/>
-      <c r="C190" s="36"/>
-      <c r="D190" s="36"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="39"/>
+      <c r="D190" s="39"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A191" s="37" t="s">
@@ -3995,12 +4038,12 @@
       <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="36" t="s">
+      <c r="A199" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="36"/>
-      <c r="C199" s="36"/>
-      <c r="D199" s="36"/>
+      <c r="B199" s="39"/>
+      <c r="C199" s="39"/>
+      <c r="D199" s="39"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A200" s="37" t="s">
@@ -4097,12 +4140,12 @@
       <c r="D207" s="8"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="36" t="s">
+      <c r="A208" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="36"/>
-      <c r="C208" s="36"/>
-      <c r="D208" s="36"/>
+      <c r="B208" s="39"/>
+      <c r="C208" s="39"/>
+      <c r="D208" s="39"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A209" s="37" t="s">
@@ -4199,12 +4242,12 @@
       <c r="D216" s="8"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A217" s="36" t="s">
+      <c r="A217" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="36"/>
-      <c r="C217" s="36"/>
-      <c r="D217" s="36"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="39"/>
+      <c r="D217" s="39"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A218" s="37" t="s">
@@ -4301,12 +4344,12 @@
       <c r="D225" s="8"/>
     </row>
     <row r="226" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A226" s="36" t="s">
+      <c r="A226" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="36"/>
-      <c r="C226" s="36"/>
-      <c r="D226" s="36"/>
+      <c r="B226" s="39"/>
+      <c r="C226" s="39"/>
+      <c r="D226" s="39"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A227" s="37" t="s">
@@ -4403,12 +4446,12 @@
       <c r="D234" s="8"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="36" t="s">
+      <c r="A235" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B235" s="36"/>
-      <c r="C235" s="36"/>
-      <c r="D235" s="36"/>
+      <c r="B235" s="39"/>
+      <c r="C235" s="39"/>
+      <c r="D235" s="39"/>
     </row>
     <row r="236" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A236" s="37" t="s">
@@ -4439,7 +4482,9 @@
       <c r="B238" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C238" s="35"/>
+      <c r="C238" s="35" t="s">
+        <v>271</v>
+      </c>
       <c r="D238" s="8"/>
     </row>
     <row r="239" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4447,9 +4492,11 @@
         <v>7</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C239" s="35"/>
+        <v>275</v>
+      </c>
+      <c r="C239" s="35" t="s">
+        <v>274</v>
+      </c>
       <c r="D239" s="8"/>
     </row>
     <row r="240" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4457,9 +4504,11 @@
         <v>13</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C240" s="35"/>
+        <v>269</v>
+      </c>
+      <c r="C240" s="35" t="s">
+        <v>272</v>
+      </c>
       <c r="D240" s="8"/>
     </row>
     <row r="241" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4467,9 +4516,11 @@
         <v>8</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C241" s="35"/>
+        <v>270</v>
+      </c>
+      <c r="C241" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="D241" s="8"/>
     </row>
     <row r="242" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4477,9 +4528,11 @@
         <v>9</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C242" s="35"/>
+        <v>268</v>
+      </c>
+      <c r="C242" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="D242" s="8"/>
     </row>
     <row r="243" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4487,62 +4540,115 @@
         <v>14</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C243" s="35"/>
+        <v>267</v>
+      </c>
+      <c r="C243" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="D243" s="8"/>
     </row>
     <row r="244" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A244" s="36" t="s">
+      <c r="A244" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B244" s="36"/>
-      <c r="C244" s="36"/>
-      <c r="D244" s="36"/>
+      <c r="B244" s="39"/>
+      <c r="C244" s="39"/>
+      <c r="D244" s="39"/>
+    </row>
+    <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B245" s="38"/>
+      <c r="C245" s="38"/>
+      <c r="D245" s="38"/>
+    </row>
+    <row r="246" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A246" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C247" s="36"/>
+      <c r="D247" s="8"/>
+    </row>
+    <row r="248" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C248" s="36"/>
+      <c r="D248" s="8"/>
+    </row>
+    <row r="249" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C249" s="36"/>
+      <c r="D249" s="8"/>
+    </row>
+    <row r="250" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C250" s="36"/>
+      <c r="D250" s="8"/>
+    </row>
+    <row r="251" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A251" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C251" s="36"/>
+      <c r="D251" s="8"/>
+    </row>
+    <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C252" s="36"/>
+      <c r="D252" s="8"/>
+    </row>
+    <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A253" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="39"/>
+      <c r="C253" s="39"/>
+      <c r="D253" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A154:D154"/>
+  <mergeCells count="57">
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A253:D253"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A155:D155"/>
@@ -4557,6 +4663,47 @@
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A235:D235"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="289">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1144,6 +1144,34 @@
   </si>
   <si>
     <t>日期：2017.11.20 第十三周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.21 第十三周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成品牌服装详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加数据“布料辅料”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加数据“品牌服装”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加数据“设计作品”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加数据“布料辅料”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,7 +1259,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1339,6 +1367,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1348,14 +1379,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1763,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245:D245"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1778,20 +1809,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1880,20 +1911,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1970,20 +2001,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -2072,20 +2103,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -2186,20 +2217,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2292,20 +2323,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2394,20 +2425,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2498,20 +2529,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2600,20 +2631,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2712,20 +2743,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2814,20 +2845,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="39" t="s">
+      <c r="A91" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
+      <c r="A92" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2916,20 +2947,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="39" t="s">
+      <c r="A100" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="38"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -3018,20 +3049,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="39" t="s">
+      <c r="A109" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="37" t="s">
+      <c r="A110" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -3120,20 +3151,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="39" t="s">
+      <c r="A118" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="38"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -3222,20 +3253,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="39" t="s">
+      <c r="A127" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="40"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="37" t="s">
+      <c r="A128" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="38"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3324,20 +3355,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="39" t="s">
+      <c r="A136" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="40"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="37" t="s">
+      <c r="A137" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="38"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3426,20 +3457,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="39" t="s">
+      <c r="A145" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="40"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="37" t="s">
+      <c r="A146" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="38"/>
-      <c r="C146" s="38"/>
-      <c r="D146" s="38"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="39"/>
+      <c r="D146" s="39"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3528,20 +3559,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="39" t="s">
+      <c r="A154" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="39"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="40"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="37" t="s">
+      <c r="A155" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="38"/>
-      <c r="C155" s="38"/>
-      <c r="D155" s="38"/>
+      <c r="B155" s="39"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="39"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3630,20 +3661,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="39" t="s">
+      <c r="A163" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="39"/>
-      <c r="C163" s="39"/>
-      <c r="D163" s="39"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="40"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="37" t="s">
+      <c r="A164" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="38"/>
-      <c r="C164" s="38"/>
-      <c r="D164" s="38"/>
+      <c r="B164" s="39"/>
+      <c r="C164" s="39"/>
+      <c r="D164" s="39"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3732,20 +3763,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="39" t="s">
+      <c r="A172" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="39"/>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="40"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="37" t="s">
+      <c r="A173" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="38"/>
-      <c r="C173" s="38"/>
-      <c r="D173" s="38"/>
+      <c r="B173" s="39"/>
+      <c r="C173" s="39"/>
+      <c r="D173" s="39"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3834,20 +3865,20 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="39" t="s">
+      <c r="A181" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="39"/>
-      <c r="C181" s="39"/>
-      <c r="D181" s="39"/>
+      <c r="B181" s="40"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="40"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="37" t="s">
+      <c r="A182" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="38"/>
-      <c r="C182" s="38"/>
-      <c r="D182" s="38"/>
+      <c r="B182" s="39"/>
+      <c r="C182" s="39"/>
+      <c r="D182" s="39"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -3936,20 +3967,20 @@
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="39" t="s">
+      <c r="A190" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="39"/>
-      <c r="C190" s="39"/>
-      <c r="D190" s="39"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="40"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="37" t="s">
+      <c r="A191" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="38"/>
-      <c r="C191" s="38"/>
-      <c r="D191" s="38"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="39"/>
+      <c r="D191" s="39"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -4038,20 +4069,20 @@
       <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="39" t="s">
+      <c r="A199" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="39"/>
-      <c r="C199" s="39"/>
-      <c r="D199" s="39"/>
+      <c r="B199" s="40"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="40"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="37" t="s">
+      <c r="A200" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="38"/>
-      <c r="C200" s="38"/>
-      <c r="D200" s="38"/>
+      <c r="B200" s="39"/>
+      <c r="C200" s="39"/>
+      <c r="D200" s="39"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
@@ -4140,20 +4171,20 @@
       <c r="D207" s="8"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="39" t="s">
+      <c r="A208" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="39"/>
-      <c r="C208" s="39"/>
-      <c r="D208" s="39"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="40"/>
+      <c r="D208" s="40"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="37" t="s">
+      <c r="A209" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="B209" s="38"/>
-      <c r="C209" s="38"/>
-      <c r="D209" s="38"/>
+      <c r="B209" s="39"/>
+      <c r="C209" s="39"/>
+      <c r="D209" s="39"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
@@ -4242,20 +4273,20 @@
       <c r="D216" s="8"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A217" s="39" t="s">
+      <c r="A217" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="39"/>
-      <c r="C217" s="39"/>
-      <c r="D217" s="39"/>
+      <c r="B217" s="40"/>
+      <c r="C217" s="40"/>
+      <c r="D217" s="40"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="37" t="s">
+      <c r="A218" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="B218" s="38"/>
-      <c r="C218" s="38"/>
-      <c r="D218" s="38"/>
+      <c r="B218" s="39"/>
+      <c r="C218" s="39"/>
+      <c r="D218" s="39"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
@@ -4344,20 +4375,20 @@
       <c r="D225" s="8"/>
     </row>
     <row r="226" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A226" s="39" t="s">
+      <c r="A226" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="39"/>
-      <c r="C226" s="39"/>
-      <c r="D226" s="39"/>
+      <c r="B226" s="40"/>
+      <c r="C226" s="40"/>
+      <c r="D226" s="40"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="37" t="s">
+      <c r="A227" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="B227" s="38"/>
-      <c r="C227" s="38"/>
-      <c r="D227" s="38"/>
+      <c r="B227" s="39"/>
+      <c r="C227" s="39"/>
+      <c r="D227" s="39"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
@@ -4446,20 +4477,20 @@
       <c r="D234" s="8"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="39" t="s">
+      <c r="A235" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B235" s="39"/>
-      <c r="C235" s="39"/>
-      <c r="D235" s="39"/>
+      <c r="B235" s="40"/>
+      <c r="C235" s="40"/>
+      <c r="D235" s="40"/>
     </row>
     <row r="236" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="37" t="s">
+      <c r="A236" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="B236" s="38"/>
-      <c r="C236" s="38"/>
-      <c r="D236" s="38"/>
+      <c r="B236" s="39"/>
+      <c r="C236" s="39"/>
+      <c r="D236" s="39"/>
     </row>
     <row r="237" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
@@ -4548,15 +4579,15 @@
       <c r="D243" s="8"/>
     </row>
     <row r="244" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A244" s="39" t="s">
+      <c r="A244" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B244" s="39"/>
-      <c r="C244" s="39"/>
-      <c r="D244" s="39"/>
+      <c r="B244" s="40"/>
+      <c r="C244" s="40"/>
+      <c r="D244" s="40"/>
     </row>
     <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="37" t="s">
+      <c r="A245" s="38" t="s">
         <v>281</v>
       </c>
       <c r="B245" s="38"/>
@@ -4584,7 +4615,9 @@
       <c r="B247" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C247" s="36"/>
+      <c r="C247" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="D247" s="8"/>
     </row>
     <row r="248" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4594,7 +4627,9 @@
       <c r="B248" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C248" s="36"/>
+      <c r="C248" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="D248" s="8"/>
     </row>
     <row r="249" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4604,7 +4639,9 @@
       <c r="B249" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C249" s="36"/>
+      <c r="C249" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="D249" s="8"/>
     </row>
     <row r="250" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4614,7 +4651,9 @@
       <c r="B250" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C250" s="36"/>
+      <c r="C250" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="D250" s="8"/>
     </row>
     <row r="251" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4624,7 +4663,9 @@
       <c r="B251" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C251" s="36"/>
+      <c r="C251" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="D251" s="8"/>
     </row>
     <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4634,19 +4675,154 @@
       <c r="B252" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C252" s="36"/>
+      <c r="C252" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="D252" s="8"/>
     </row>
     <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A253" s="39" t="s">
+      <c r="A253" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B253" s="39"/>
-      <c r="C253" s="39"/>
-      <c r="D253" s="39"/>
+      <c r="B253" s="40"/>
+      <c r="C253" s="40"/>
+      <c r="D253" s="40"/>
+    </row>
+    <row r="254" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="B254" s="38"/>
+      <c r="C254" s="38"/>
+      <c r="D254" s="38"/>
+    </row>
+    <row r="255" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A255" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C256" s="37"/>
+      <c r="D256" s="8"/>
+    </row>
+    <row r="257" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C257" s="37"/>
+      <c r="D257" s="8"/>
+    </row>
+    <row r="258" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C258" s="37"/>
+      <c r="D258" s="8"/>
+    </row>
+    <row r="259" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C259" s="37"/>
+      <c r="D259" s="8"/>
+    </row>
+    <row r="260" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A260" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C260" s="37"/>
+      <c r="D260" s="8"/>
+    </row>
+    <row r="261" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C261" s="37"/>
+      <c r="D261" s="8"/>
+    </row>
+    <row r="262" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A262" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="40"/>
+      <c r="C262" s="40"/>
+      <c r="D262" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="59">
+    <mergeCell ref="A254:D254"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A245:D245"/>
     <mergeCell ref="A253:D253"/>
     <mergeCell ref="A101:D101"/>
@@ -4663,47 +4839,6 @@
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A235:D235"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="297">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1172,6 +1172,38 @@
   </si>
   <si>
     <t>添加数据“布料辅料”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.27 第十四周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成修改作品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成购买作品页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成购买记录详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成购买记录详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成购买意向详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成购买意向详情界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1259,7 +1291,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1370,23 +1402,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1794,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D262"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="D259" sqref="D259"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1809,20 +1844,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1911,20 +1946,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -2001,20 +2036,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -2103,20 +2138,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -2225,12 +2260,12 @@
       <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2331,12 +2366,12 @@
       <c r="D46" s="40"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2433,12 +2468,12 @@
       <c r="D55" s="40"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2537,12 +2572,12 @@
       <c r="D64" s="40"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2639,12 +2674,12 @@
       <c r="D73" s="40"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2743,7 +2778,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="44" t="s">
         <v>111</v>
       </c>
       <c r="B82" s="40"/>
@@ -2751,12 +2786,12 @@
       <c r="D82" s="40"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2853,12 +2888,12 @@
       <c r="D91" s="40"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2955,12 +2990,12 @@
       <c r="D100" s="40"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -3057,12 +3092,12 @@
       <c r="D109" s="40"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="38" t="s">
+      <c r="A110" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -3159,12 +3194,12 @@
       <c r="D118" s="40"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="38" t="s">
+      <c r="A119" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -3261,12 +3296,12 @@
       <c r="D127" s="40"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="38" t="s">
+      <c r="A128" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="39"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3363,12 +3398,12 @@
       <c r="D136" s="40"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="38" t="s">
+      <c r="A137" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3465,12 +3500,12 @@
       <c r="D145" s="40"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="38" t="s">
+      <c r="A146" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="39"/>
-      <c r="C146" s="39"/>
-      <c r="D146" s="39"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="41"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3567,12 +3602,12 @@
       <c r="D154" s="40"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="38" t="s">
+      <c r="A155" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="39"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="39"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="41"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3669,12 +3704,12 @@
       <c r="D163" s="40"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="38" t="s">
+      <c r="A164" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="39"/>
-      <c r="C164" s="39"/>
-      <c r="D164" s="39"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="41"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3771,12 +3806,12 @@
       <c r="D172" s="40"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="38" t="s">
+      <c r="A173" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="39"/>
-      <c r="C173" s="39"/>
-      <c r="D173" s="39"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="41"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3873,12 +3908,12 @@
       <c r="D181" s="40"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="38" t="s">
+      <c r="A182" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="39"/>
-      <c r="C182" s="39"/>
-      <c r="D182" s="39"/>
+      <c r="B182" s="41"/>
+      <c r="C182" s="41"/>
+      <c r="D182" s="41"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -3975,12 +4010,12 @@
       <c r="D190" s="40"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="38" t="s">
+      <c r="A191" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="39"/>
-      <c r="C191" s="39"/>
-      <c r="D191" s="39"/>
+      <c r="B191" s="41"/>
+      <c r="C191" s="41"/>
+      <c r="D191" s="41"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -4077,12 +4112,12 @@
       <c r="D199" s="40"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="38" t="s">
+      <c r="A200" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="39"/>
-      <c r="C200" s="39"/>
-      <c r="D200" s="39"/>
+      <c r="B200" s="41"/>
+      <c r="C200" s="41"/>
+      <c r="D200" s="41"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
@@ -4179,12 +4214,12 @@
       <c r="D208" s="40"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="38" t="s">
+      <c r="A209" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B209" s="39"/>
-      <c r="C209" s="39"/>
-      <c r="D209" s="39"/>
+      <c r="B209" s="41"/>
+      <c r="C209" s="41"/>
+      <c r="D209" s="41"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
@@ -4281,12 +4316,12 @@
       <c r="D217" s="40"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="38" t="s">
+      <c r="A218" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="B218" s="39"/>
-      <c r="C218" s="39"/>
-      <c r="D218" s="39"/>
+      <c r="B218" s="41"/>
+      <c r="C218" s="41"/>
+      <c r="D218" s="41"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
@@ -4383,12 +4418,12 @@
       <c r="D226" s="40"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="38" t="s">
+      <c r="A227" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="B227" s="39"/>
-      <c r="C227" s="39"/>
-      <c r="D227" s="39"/>
+      <c r="B227" s="41"/>
+      <c r="C227" s="41"/>
+      <c r="D227" s="41"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
@@ -4485,12 +4520,12 @@
       <c r="D235" s="40"/>
     </row>
     <row r="236" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="38" t="s">
+      <c r="A236" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="B236" s="39"/>
-      <c r="C236" s="39"/>
-      <c r="D236" s="39"/>
+      <c r="B236" s="41"/>
+      <c r="C236" s="41"/>
+      <c r="D236" s="41"/>
     </row>
     <row r="237" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
@@ -4587,12 +4622,12 @@
       <c r="D244" s="40"/>
     </row>
     <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="38" t="s">
+      <c r="A245" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="B245" s="38"/>
-      <c r="C245" s="38"/>
-      <c r="D245" s="38"/>
+      <c r="B245" s="39"/>
+      <c r="C245" s="39"/>
+      <c r="D245" s="39"/>
     </row>
     <row r="246" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
@@ -4689,12 +4724,12 @@
       <c r="D253" s="40"/>
     </row>
     <row r="254" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="38" t="s">
+      <c r="A254" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="B254" s="38"/>
-      <c r="C254" s="38"/>
-      <c r="D254" s="38"/>
+      <c r="B254" s="39"/>
+      <c r="C254" s="39"/>
+      <c r="D254" s="39"/>
     </row>
     <row r="255" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
@@ -4717,7 +4752,9 @@
       <c r="B256" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C256" s="37"/>
+      <c r="C256" s="37" t="s">
+        <v>289</v>
+      </c>
       <c r="D256" s="8"/>
     </row>
     <row r="257" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4727,7 +4764,9 @@
       <c r="B257" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C257" s="37"/>
+      <c r="C257" s="38" t="s">
+        <v>99</v>
+      </c>
       <c r="D257" s="8"/>
     </row>
     <row r="258" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4737,7 +4776,9 @@
       <c r="B258" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C258" s="37"/>
+      <c r="C258" s="38" t="s">
+        <v>99</v>
+      </c>
       <c r="D258" s="8"/>
     </row>
     <row r="259" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4747,7 +4788,9 @@
       <c r="B259" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C259" s="37"/>
+      <c r="C259" s="38" t="s">
+        <v>99</v>
+      </c>
       <c r="D259" s="8"/>
     </row>
     <row r="260" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4757,7 +4800,9 @@
       <c r="B260" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C260" s="37"/>
+      <c r="C260" s="38" t="s">
+        <v>99</v>
+      </c>
       <c r="D260" s="8"/>
     </row>
     <row r="261" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4767,7 +4812,9 @@
       <c r="B261" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C261" s="37"/>
+      <c r="C261" s="38" t="s">
+        <v>99</v>
+      </c>
       <c r="D261" s="8"/>
     </row>
     <row r="262" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4778,53 +4825,100 @@
       <c r="C262" s="40"/>
       <c r="D262" s="40"/>
     </row>
+    <row r="263" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="B263" s="39"/>
+      <c r="C263" s="39"/>
+      <c r="D263" s="39"/>
+    </row>
+    <row r="264" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A264" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C265" s="38"/>
+      <c r="D265" s="8"/>
+    </row>
+    <row r="266" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C266" s="38"/>
+      <c r="D266" s="8"/>
+    </row>
+    <row r="267" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C267" s="38"/>
+      <c r="D267" s="8"/>
+    </row>
+    <row r="268" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C268" s="38"/>
+      <c r="D268" s="8"/>
+    </row>
+    <row r="269" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A269" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C269" s="38"/>
+      <c r="D269" s="8"/>
+    </row>
+    <row r="270" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C270" s="38"/>
+      <c r="D270" s="8"/>
+    </row>
+    <row r="271" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A271" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="40"/>
+      <c r="C271" s="40"/>
+      <c r="D271" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A254:D254"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A253:D253"/>
+  <mergeCells count="61">
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A271:D271"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A155:D155"/>
@@ -4839,6 +4933,51 @@
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A254:D254"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A253:D253"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="305">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1204,6 +1204,38 @@
   </si>
   <si>
     <t>辅助完成购买意向详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.27 第十四周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合完成购买部分内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成收藏首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成收藏首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成收藏内容页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成收藏内容页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,7 +1323,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1405,6 +1437,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1414,14 +1449,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1829,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="B278" sqref="B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1844,20 +1879,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1946,20 +1981,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -2036,20 +2071,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -2138,20 +2173,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -2252,20 +2287,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2358,20 +2393,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2460,20 +2495,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2564,20 +2599,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2666,20 +2701,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2778,20 +2813,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2880,20 +2915,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="39" t="s">
+      <c r="A92" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -2982,20 +3017,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="40" t="s">
+      <c r="A100" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="39" t="s">
+      <c r="A101" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -3084,20 +3119,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="40" t="s">
+      <c r="A109" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
+      <c r="A110" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="41"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -3186,20 +3221,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="40"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="40"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="39" t="s">
+      <c r="A119" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="41"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="41"/>
+      <c r="B119" s="42"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="42"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -3288,20 +3323,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="40" t="s">
+      <c r="A127" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="40"/>
-      <c r="C127" s="40"/>
-      <c r="D127" s="40"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="39" t="s">
+      <c r="A128" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="41"/>
+      <c r="B128" s="42"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="42"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3390,20 +3425,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="40" t="s">
+      <c r="A136" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="40"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="40"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="39" t="s">
+      <c r="A137" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="41"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="41"/>
+      <c r="B137" s="42"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3492,20 +3527,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="40" t="s">
+      <c r="A145" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="40"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="40"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="41"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="39" t="s">
+      <c r="A146" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="41"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="41"/>
+      <c r="B146" s="42"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="42"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3594,20 +3629,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="40" t="s">
+      <c r="A154" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="40"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="40"/>
+      <c r="B154" s="41"/>
+      <c r="C154" s="41"/>
+      <c r="D154" s="41"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="39" t="s">
+      <c r="A155" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="41"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="41"/>
+      <c r="B155" s="42"/>
+      <c r="C155" s="42"/>
+      <c r="D155" s="42"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3696,20 +3731,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="40" t="s">
+      <c r="A163" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="40"/>
-      <c r="C163" s="40"/>
-      <c r="D163" s="40"/>
+      <c r="B163" s="41"/>
+      <c r="C163" s="41"/>
+      <c r="D163" s="41"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="39" t="s">
+      <c r="A164" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="41"/>
-      <c r="C164" s="41"/>
-      <c r="D164" s="41"/>
+      <c r="B164" s="42"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="42"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3798,20 +3833,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="40" t="s">
+      <c r="A172" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="40"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="41"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="39" t="s">
+      <c r="A173" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="41"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="41"/>
+      <c r="B173" s="42"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="42"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3900,20 +3935,20 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="40" t="s">
+      <c r="A181" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="40"/>
-      <c r="C181" s="40"/>
-      <c r="D181" s="40"/>
+      <c r="B181" s="41"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="41"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="39" t="s">
+      <c r="A182" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="41"/>
-      <c r="C182" s="41"/>
-      <c r="D182" s="41"/>
+      <c r="B182" s="42"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="42"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -4002,20 +4037,20 @@
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="40" t="s">
+      <c r="A190" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="40"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="40"/>
+      <c r="B190" s="41"/>
+      <c r="C190" s="41"/>
+      <c r="D190" s="41"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="39" t="s">
+      <c r="A191" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="41"/>
-      <c r="C191" s="41"/>
-      <c r="D191" s="41"/>
+      <c r="B191" s="42"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="42"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -4104,20 +4139,20 @@
       <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="40" t="s">
+      <c r="A199" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="40"/>
-      <c r="C199" s="40"/>
-      <c r="D199" s="40"/>
+      <c r="B199" s="41"/>
+      <c r="C199" s="41"/>
+      <c r="D199" s="41"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="39" t="s">
+      <c r="A200" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="41"/>
-      <c r="C200" s="41"/>
-      <c r="D200" s="41"/>
+      <c r="B200" s="42"/>
+      <c r="C200" s="42"/>
+      <c r="D200" s="42"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
@@ -4206,20 +4241,20 @@
       <c r="D207" s="8"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="40" t="s">
+      <c r="A208" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="40"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="40"/>
+      <c r="B208" s="41"/>
+      <c r="C208" s="41"/>
+      <c r="D208" s="41"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="39" t="s">
+      <c r="A209" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="B209" s="41"/>
-      <c r="C209" s="41"/>
-      <c r="D209" s="41"/>
+      <c r="B209" s="42"/>
+      <c r="C209" s="42"/>
+      <c r="D209" s="42"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
@@ -4308,20 +4343,20 @@
       <c r="D216" s="8"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A217" s="40" t="s">
+      <c r="A217" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="40"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="40"/>
+      <c r="B217" s="41"/>
+      <c r="C217" s="41"/>
+      <c r="D217" s="41"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="39" t="s">
+      <c r="A218" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="B218" s="41"/>
-      <c r="C218" s="41"/>
-      <c r="D218" s="41"/>
+      <c r="B218" s="42"/>
+      <c r="C218" s="42"/>
+      <c r="D218" s="42"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
@@ -4410,20 +4445,20 @@
       <c r="D225" s="8"/>
     </row>
     <row r="226" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A226" s="40" t="s">
+      <c r="A226" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="40"/>
-      <c r="C226" s="40"/>
-      <c r="D226" s="40"/>
+      <c r="B226" s="41"/>
+      <c r="C226" s="41"/>
+      <c r="D226" s="41"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="39" t="s">
+      <c r="A227" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="B227" s="41"/>
-      <c r="C227" s="41"/>
-      <c r="D227" s="41"/>
+      <c r="B227" s="42"/>
+      <c r="C227" s="42"/>
+      <c r="D227" s="42"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
@@ -4512,20 +4547,20 @@
       <c r="D234" s="8"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="40" t="s">
+      <c r="A235" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B235" s="40"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="40"/>
+      <c r="B235" s="41"/>
+      <c r="C235" s="41"/>
+      <c r="D235" s="41"/>
     </row>
     <row r="236" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="39" t="s">
+      <c r="A236" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="B236" s="41"/>
-      <c r="C236" s="41"/>
-      <c r="D236" s="41"/>
+      <c r="B236" s="42"/>
+      <c r="C236" s="42"/>
+      <c r="D236" s="42"/>
     </row>
     <row r="237" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
@@ -4614,20 +4649,20 @@
       <c r="D243" s="8"/>
     </row>
     <row r="244" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A244" s="40" t="s">
+      <c r="A244" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B244" s="40"/>
-      <c r="C244" s="40"/>
-      <c r="D244" s="40"/>
+      <c r="B244" s="41"/>
+      <c r="C244" s="41"/>
+      <c r="D244" s="41"/>
     </row>
     <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="39" t="s">
+      <c r="A245" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="B245" s="39"/>
-      <c r="C245" s="39"/>
-      <c r="D245" s="39"/>
+      <c r="B245" s="40"/>
+      <c r="C245" s="40"/>
+      <c r="D245" s="40"/>
     </row>
     <row r="246" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
@@ -4716,20 +4751,20 @@
       <c r="D252" s="8"/>
     </row>
     <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A253" s="40" t="s">
+      <c r="A253" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B253" s="40"/>
-      <c r="C253" s="40"/>
-      <c r="D253" s="40"/>
+      <c r="B253" s="41"/>
+      <c r="C253" s="41"/>
+      <c r="D253" s="41"/>
     </row>
     <row r="254" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="39" t="s">
+      <c r="A254" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="B254" s="39"/>
-      <c r="C254" s="39"/>
-      <c r="D254" s="39"/>
+      <c r="B254" s="40"/>
+      <c r="C254" s="40"/>
+      <c r="D254" s="40"/>
     </row>
     <row r="255" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
@@ -4818,20 +4853,20 @@
       <c r="D261" s="8"/>
     </row>
     <row r="262" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A262" s="40" t="s">
+      <c r="A262" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B262" s="40"/>
-      <c r="C262" s="40"/>
-      <c r="D262" s="40"/>
+      <c r="B262" s="41"/>
+      <c r="C262" s="41"/>
+      <c r="D262" s="41"/>
     </row>
     <row r="263" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="39" t="s">
+      <c r="A263" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="B263" s="39"/>
-      <c r="C263" s="39"/>
-      <c r="D263" s="39"/>
+      <c r="B263" s="40"/>
+      <c r="C263" s="40"/>
+      <c r="D263" s="40"/>
     </row>
     <row r="264" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
@@ -4854,7 +4889,9 @@
       <c r="B265" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C265" s="38"/>
+      <c r="C265" s="38" t="s">
+        <v>297</v>
+      </c>
       <c r="D265" s="8"/>
     </row>
     <row r="266" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4864,7 +4901,9 @@
       <c r="B266" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C266" s="38"/>
+      <c r="C266" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="D266" s="8"/>
     </row>
     <row r="267" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4874,7 +4913,9 @@
       <c r="B267" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C267" s="38"/>
+      <c r="C267" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="D267" s="8"/>
     </row>
     <row r="268" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4884,7 +4925,9 @@
       <c r="B268" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C268" s="38"/>
+      <c r="C268" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="D268" s="8"/>
     </row>
     <row r="269" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4894,7 +4937,9 @@
       <c r="B269" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C269" s="38"/>
+      <c r="C269" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="D269" s="8"/>
     </row>
     <row r="270" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4904,19 +4949,158 @@
       <c r="B270" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C270" s="38"/>
+      <c r="C270" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="D270" s="8"/>
     </row>
     <row r="271" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A271" s="40" t="s">
+      <c r="A271" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B271" s="40"/>
-      <c r="C271" s="40"/>
-      <c r="D271" s="40"/>
+      <c r="B271" s="41"/>
+      <c r="C271" s="41"/>
+      <c r="D271" s="41"/>
+    </row>
+    <row r="272" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A272" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B272" s="40"/>
+      <c r="C272" s="40"/>
+      <c r="D272" s="40"/>
+    </row>
+    <row r="273" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A273" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C274" s="39"/>
+      <c r="D274" s="8"/>
+    </row>
+    <row r="275" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C275" s="39"/>
+      <c r="D275" s="8"/>
+    </row>
+    <row r="276" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C276" s="39"/>
+      <c r="D276" s="8"/>
+    </row>
+    <row r="277" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C277" s="39"/>
+      <c r="D277" s="8"/>
+    </row>
+    <row r="278" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A278" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C278" s="39"/>
+      <c r="D278" s="8"/>
+    </row>
+    <row r="279" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C279" s="39"/>
+      <c r="D279" s="8"/>
+    </row>
+    <row r="280" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A280" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" s="41"/>
+      <c r="C280" s="41"/>
+      <c r="D280" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="63">
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A254:D254"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A263:D263"/>
     <mergeCell ref="A271:D271"/>
     <mergeCell ref="A101:D101"/>
@@ -4933,51 +5117,6 @@
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A254:D254"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A253:D253"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="313">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1236,6 +1236,38 @@
   </si>
   <si>
     <t>辅助完成收藏内容页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.12.4 第十五周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成搜索后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成搜索服装界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成搜索服装界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成搜索布料界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设置-关于我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成搜索资讯界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1323,7 +1355,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1440,6 +1472,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1449,14 +1484,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1864,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B278" sqref="B278"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1879,20 +1914,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1981,20 +2016,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -2071,20 +2106,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -2173,20 +2208,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -2287,20 +2322,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2393,20 +2428,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2495,20 +2530,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2599,20 +2634,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2701,20 +2736,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2813,20 +2848,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2915,20 +2950,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -3017,20 +3052,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="41" t="s">
+      <c r="A100" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="40" t="s">
+      <c r="A101" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -3119,20 +3154,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="41" t="s">
+      <c r="A109" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="40" t="s">
+      <c r="A110" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="42"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -3221,20 +3256,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="41" t="s">
+      <c r="A118" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="42"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="40" t="s">
+      <c r="A119" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="42"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="42"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -3323,20 +3358,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="41"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="40" t="s">
+      <c r="A128" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="42"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="42"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3425,20 +3460,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="41" t="s">
+      <c r="A136" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="41"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="41"/>
+      <c r="B136" s="42"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="40" t="s">
+      <c r="A137" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="42"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="42"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3527,20 +3562,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="41" t="s">
+      <c r="A145" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="41"/>
-      <c r="C145" s="41"/>
-      <c r="D145" s="41"/>
+      <c r="B145" s="42"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="42"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="40" t="s">
+      <c r="A146" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="42"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="42"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="43"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3629,20 +3664,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="41" t="s">
+      <c r="A154" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="41"/>
-      <c r="C154" s="41"/>
-      <c r="D154" s="41"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="42"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="40" t="s">
+      <c r="A155" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="42"/>
-      <c r="C155" s="42"/>
-      <c r="D155" s="42"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="43"/>
+      <c r="D155" s="43"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3731,20 +3766,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="41" t="s">
+      <c r="A163" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="41"/>
-      <c r="C163" s="41"/>
-      <c r="D163" s="41"/>
+      <c r="B163" s="42"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="42"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="40" t="s">
+      <c r="A164" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="42"/>
-      <c r="C164" s="42"/>
-      <c r="D164" s="42"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="43"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3833,20 +3868,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="41" t="s">
+      <c r="A172" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="41"/>
-      <c r="C172" s="41"/>
-      <c r="D172" s="41"/>
+      <c r="B172" s="42"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="42"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="40" t="s">
+      <c r="A173" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="42"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="42"/>
+      <c r="B173" s="43"/>
+      <c r="C173" s="43"/>
+      <c r="D173" s="43"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3935,20 +3970,20 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="41" t="s">
+      <c r="A181" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="41"/>
-      <c r="C181" s="41"/>
-      <c r="D181" s="41"/>
+      <c r="B181" s="42"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="42"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="40" t="s">
+      <c r="A182" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="42"/>
-      <c r="C182" s="42"/>
-      <c r="D182" s="42"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="43"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -4037,20 +4072,20 @@
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="41" t="s">
+      <c r="A190" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="41"/>
-      <c r="C190" s="41"/>
-      <c r="D190" s="41"/>
+      <c r="B190" s="42"/>
+      <c r="C190" s="42"/>
+      <c r="D190" s="42"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="40" t="s">
+      <c r="A191" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="42"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="42"/>
+      <c r="B191" s="43"/>
+      <c r="C191" s="43"/>
+      <c r="D191" s="43"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -4139,20 +4174,20 @@
       <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="41" t="s">
+      <c r="A199" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="41"/>
-      <c r="C199" s="41"/>
-      <c r="D199" s="41"/>
+      <c r="B199" s="42"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="42"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="40" t="s">
+      <c r="A200" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="42"/>
-      <c r="C200" s="42"/>
-      <c r="D200" s="42"/>
+      <c r="B200" s="43"/>
+      <c r="C200" s="43"/>
+      <c r="D200" s="43"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
@@ -4241,20 +4276,20 @@
       <c r="D207" s="8"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="41" t="s">
+      <c r="A208" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="41"/>
-      <c r="C208" s="41"/>
-      <c r="D208" s="41"/>
+      <c r="B208" s="42"/>
+      <c r="C208" s="42"/>
+      <c r="D208" s="42"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="40" t="s">
+      <c r="A209" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="B209" s="42"/>
-      <c r="C209" s="42"/>
-      <c r="D209" s="42"/>
+      <c r="B209" s="43"/>
+      <c r="C209" s="43"/>
+      <c r="D209" s="43"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
@@ -4343,20 +4378,20 @@
       <c r="D216" s="8"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A217" s="41" t="s">
+      <c r="A217" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="41"/>
-      <c r="C217" s="41"/>
-      <c r="D217" s="41"/>
+      <c r="B217" s="42"/>
+      <c r="C217" s="42"/>
+      <c r="D217" s="42"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="40" t="s">
+      <c r="A218" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="B218" s="42"/>
-      <c r="C218" s="42"/>
-      <c r="D218" s="42"/>
+      <c r="B218" s="43"/>
+      <c r="C218" s="43"/>
+      <c r="D218" s="43"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
@@ -4445,20 +4480,20 @@
       <c r="D225" s="8"/>
     </row>
     <row r="226" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A226" s="41" t="s">
+      <c r="A226" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="41"/>
-      <c r="C226" s="41"/>
-      <c r="D226" s="41"/>
+      <c r="B226" s="42"/>
+      <c r="C226" s="42"/>
+      <c r="D226" s="42"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="40" t="s">
+      <c r="A227" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="B227" s="42"/>
-      <c r="C227" s="42"/>
-      <c r="D227" s="42"/>
+      <c r="B227" s="43"/>
+      <c r="C227" s="43"/>
+      <c r="D227" s="43"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
@@ -4547,20 +4582,20 @@
       <c r="D234" s="8"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="41" t="s">
+      <c r="A235" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B235" s="41"/>
-      <c r="C235" s="41"/>
-      <c r="D235" s="41"/>
+      <c r="B235" s="42"/>
+      <c r="C235" s="42"/>
+      <c r="D235" s="42"/>
     </row>
     <row r="236" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="40" t="s">
+      <c r="A236" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="B236" s="42"/>
-      <c r="C236" s="42"/>
-      <c r="D236" s="42"/>
+      <c r="B236" s="43"/>
+      <c r="C236" s="43"/>
+      <c r="D236" s="43"/>
     </row>
     <row r="237" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
@@ -4649,20 +4684,20 @@
       <c r="D243" s="8"/>
     </row>
     <row r="244" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A244" s="41" t="s">
+      <c r="A244" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B244" s="41"/>
-      <c r="C244" s="41"/>
-      <c r="D244" s="41"/>
+      <c r="B244" s="42"/>
+      <c r="C244" s="42"/>
+      <c r="D244" s="42"/>
     </row>
     <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="40" t="s">
+      <c r="A245" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="B245" s="40"/>
-      <c r="C245" s="40"/>
-      <c r="D245" s="40"/>
+      <c r="B245" s="41"/>
+      <c r="C245" s="41"/>
+      <c r="D245" s="41"/>
     </row>
     <row r="246" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
@@ -4751,20 +4786,20 @@
       <c r="D252" s="8"/>
     </row>
     <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A253" s="41" t="s">
+      <c r="A253" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B253" s="41"/>
-      <c r="C253" s="41"/>
-      <c r="D253" s="41"/>
+      <c r="B253" s="42"/>
+      <c r="C253" s="42"/>
+      <c r="D253" s="42"/>
     </row>
     <row r="254" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="40" t="s">
+      <c r="A254" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="B254" s="40"/>
-      <c r="C254" s="40"/>
-      <c r="D254" s="40"/>
+      <c r="B254" s="41"/>
+      <c r="C254" s="41"/>
+      <c r="D254" s="41"/>
     </row>
     <row r="255" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
@@ -4853,20 +4888,20 @@
       <c r="D261" s="8"/>
     </row>
     <row r="262" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A262" s="41" t="s">
+      <c r="A262" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B262" s="41"/>
-      <c r="C262" s="41"/>
-      <c r="D262" s="41"/>
+      <c r="B262" s="42"/>
+      <c r="C262" s="42"/>
+      <c r="D262" s="42"/>
     </row>
     <row r="263" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="40" t="s">
+      <c r="A263" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B263" s="40"/>
-      <c r="C263" s="40"/>
-      <c r="D263" s="40"/>
+      <c r="B263" s="41"/>
+      <c r="C263" s="41"/>
+      <c r="D263" s="41"/>
     </row>
     <row r="264" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
@@ -4955,20 +4990,20 @@
       <c r="D270" s="8"/>
     </row>
     <row r="271" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A271" s="41" t="s">
+      <c r="A271" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B271" s="41"/>
-      <c r="C271" s="41"/>
-      <c r="D271" s="41"/>
+      <c r="B271" s="42"/>
+      <c r="C271" s="42"/>
+      <c r="D271" s="42"/>
     </row>
     <row r="272" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A272" s="40" t="s">
+      <c r="A272" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="B272" s="40"/>
-      <c r="C272" s="40"/>
-      <c r="D272" s="40"/>
+      <c r="B272" s="41"/>
+      <c r="C272" s="41"/>
+      <c r="D272" s="41"/>
     </row>
     <row r="273" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
@@ -4991,7 +5026,9 @@
       <c r="B274" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C274" s="39"/>
+      <c r="C274" s="39" t="s">
+        <v>305</v>
+      </c>
       <c r="D274" s="8"/>
     </row>
     <row r="275" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -5011,7 +5048,9 @@
       <c r="B276" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C276" s="39"/>
+      <c r="C276" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="D276" s="8"/>
     </row>
     <row r="277" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -5021,7 +5060,9 @@
       <c r="B277" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C277" s="39"/>
+      <c r="C277" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="D277" s="8"/>
     </row>
     <row r="278" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5031,7 +5072,9 @@
       <c r="B278" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C278" s="39"/>
+      <c r="C278" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="D278" s="8"/>
     </row>
     <row r="279" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -5041,68 +5084,113 @@
       <c r="B279" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C279" s="39"/>
+      <c r="C279" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="D279" s="8"/>
     </row>
     <row r="280" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A280" s="41" t="s">
+      <c r="A280" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B280" s="41"/>
-      <c r="C280" s="41"/>
-      <c r="D280" s="41"/>
+      <c r="B280" s="42"/>
+      <c r="C280" s="42"/>
+      <c r="D280" s="42"/>
+    </row>
+    <row r="281" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A281" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="B281" s="41"/>
+      <c r="C281" s="41"/>
+      <c r="D281" s="41"/>
+    </row>
+    <row r="282" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A282" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C283" s="40"/>
+      <c r="D283" s="8"/>
+    </row>
+    <row r="284" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C284" s="40"/>
+      <c r="D284" s="8"/>
+    </row>
+    <row r="285" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C285" s="40"/>
+      <c r="D285" s="8"/>
+    </row>
+    <row r="286" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C286" s="40"/>
+      <c r="D286" s="8"/>
+    </row>
+    <row r="287" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A287" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C287" s="40"/>
+      <c r="D287" s="8"/>
+    </row>
+    <row r="288" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C288" s="40"/>
+      <c r="D288" s="8"/>
+    </row>
+    <row r="289" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A289" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" s="42"/>
+      <c r="C289" s="42"/>
+      <c r="D289" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A254:D254"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A271:D271"/>
+  <mergeCells count="65">
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A289:D289"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A155:D155"/>
@@ -5117,6 +5205,55 @@
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A254:D254"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A271:D271"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第四组/第四组小组计划/第四组计划实施表.xlsx
+++ b/第四组/第四组小组计划/第四组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="321">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1268,6 +1268,38 @@
   </si>
   <si>
     <t>完成搜索资讯界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.12.6 第十五周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对“服装”进行测试，并编写测试文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对“布料”进行测试，并编写测试文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对“首页”进行测试，并编写测试文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对“我的”进行测试，并编写整合测试文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助对“布料”进行测试，并编写测试文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助对“首页”进行测试，并编写测试文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1355,7 +1387,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1475,6 +1507,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1484,14 +1519,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1899,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1914,20 +1949,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -2016,20 +2051,20 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -2106,20 +2141,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -2208,20 +2243,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -2322,20 +2357,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2428,20 +2463,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -2530,20 +2565,20 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -2634,20 +2669,20 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -2736,20 +2771,20 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2848,20 +2883,20 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -2950,20 +2985,20 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -3052,20 +3087,20 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="42" t="s">
+      <c r="A100" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="41" t="s">
+      <c r="A101" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -3154,20 +3189,20 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="42" t="s">
+      <c r="A109" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="42"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="42"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="41" t="s">
+      <c r="A110" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
     </row>
     <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -3256,20 +3291,20 @@
       <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="42"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="42"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="41" t="s">
+      <c r="A119" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="43"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="43"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="44"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -3358,20 +3393,20 @@
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="42" t="s">
+      <c r="A127" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="42"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="42"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
+      <c r="B128" s="44"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
     </row>
     <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -3460,20 +3495,20 @@
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="42"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="42"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="41" t="s">
+      <c r="A137" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="43"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="44"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -3562,20 +3597,20 @@
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="42" t="s">
+      <c r="A145" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="42"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="42"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
     </row>
     <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="41" t="s">
+      <c r="A146" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="43"/>
-      <c r="C146" s="43"/>
-      <c r="D146" s="43"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -3664,20 +3699,20 @@
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="42" t="s">
+      <c r="A154" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="42"/>
-      <c r="C154" s="42"/>
-      <c r="D154" s="42"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="43"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="41" t="s">
+      <c r="A155" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="43"/>
-      <c r="C155" s="43"/>
-      <c r="D155" s="43"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="44"/>
     </row>
     <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -3766,20 +3801,20 @@
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="42" t="s">
+      <c r="A163" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="42"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="42"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="43"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="41" t="s">
+      <c r="A164" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="43"/>
-      <c r="C164" s="43"/>
-      <c r="D164" s="43"/>
+      <c r="B164" s="44"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="44"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3868,20 +3903,20 @@
       <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="42" t="s">
+      <c r="A172" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="42"/>
-      <c r="C172" s="42"/>
-      <c r="D172" s="42"/>
+      <c r="B172" s="43"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="43"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="41" t="s">
+      <c r="A173" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="43"/>
-      <c r="C173" s="43"/>
-      <c r="D173" s="43"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="44"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -3970,20 +4005,20 @@
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="42" t="s">
+      <c r="A181" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="42"/>
-      <c r="C181" s="42"/>
-      <c r="D181" s="42"/>
+      <c r="B181" s="43"/>
+      <c r="C181" s="43"/>
+      <c r="D181" s="43"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="41" t="s">
+      <c r="A182" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="43"/>
-      <c r="C182" s="43"/>
-      <c r="D182" s="43"/>
+      <c r="B182" s="44"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="44"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -4072,20 +4107,20 @@
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="42" t="s">
+      <c r="A190" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="42"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="42"/>
+      <c r="B190" s="43"/>
+      <c r="C190" s="43"/>
+      <c r="D190" s="43"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="41" t="s">
+      <c r="A191" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B191" s="43"/>
-      <c r="C191" s="43"/>
-      <c r="D191" s="43"/>
+      <c r="B191" s="44"/>
+      <c r="C191" s="44"/>
+      <c r="D191" s="44"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -4174,20 +4209,20 @@
       <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="42" t="s">
+      <c r="A199" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="42"/>
-      <c r="C199" s="42"/>
-      <c r="D199" s="42"/>
+      <c r="B199" s="43"/>
+      <c r="C199" s="43"/>
+      <c r="D199" s="43"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="41" t="s">
+      <c r="A200" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="43"/>
-      <c r="C200" s="43"/>
-      <c r="D200" s="43"/>
+      <c r="B200" s="44"/>
+      <c r="C200" s="44"/>
+      <c r="D200" s="44"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
@@ -4276,20 +4311,20 @@
       <c r="D207" s="8"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="42" t="s">
+      <c r="A208" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="42"/>
-      <c r="C208" s="42"/>
-      <c r="D208" s="42"/>
+      <c r="B208" s="43"/>
+      <c r="C208" s="43"/>
+      <c r="D208" s="43"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="41" t="s">
+      <c r="A209" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="B209" s="43"/>
-      <c r="C209" s="43"/>
-      <c r="D209" s="43"/>
+      <c r="B209" s="44"/>
+      <c r="C209" s="44"/>
+      <c r="D209" s="44"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
@@ -4378,20 +4413,20 @@
       <c r="D216" s="8"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A217" s="42" t="s">
+      <c r="A217" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="42"/>
-      <c r="C217" s="42"/>
-      <c r="D217" s="42"/>
+      <c r="B217" s="43"/>
+      <c r="C217" s="43"/>
+      <c r="D217" s="43"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="41" t="s">
+      <c r="A218" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="B218" s="43"/>
-      <c r="C218" s="43"/>
-      <c r="D218" s="43"/>
+      <c r="B218" s="44"/>
+      <c r="C218" s="44"/>
+      <c r="D218" s="44"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
@@ -4480,20 +4515,20 @@
       <c r="D225" s="8"/>
     </row>
     <row r="226" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A226" s="42" t="s">
+      <c r="A226" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="42"/>
-      <c r="C226" s="42"/>
-      <c r="D226" s="42"/>
+      <c r="B226" s="43"/>
+      <c r="C226" s="43"/>
+      <c r="D226" s="43"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="41" t="s">
+      <c r="A227" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="B227" s="43"/>
-      <c r="C227" s="43"/>
-      <c r="D227" s="43"/>
+      <c r="B227" s="44"/>
+      <c r="C227" s="44"/>
+      <c r="D227" s="44"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
@@ -4582,20 +4617,20 @@
       <c r="D234" s="8"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="42" t="s">
+      <c r="A235" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B235" s="42"/>
-      <c r="C235" s="42"/>
-      <c r="D235" s="42"/>
+      <c r="B235" s="43"/>
+      <c r="C235" s="43"/>
+      <c r="D235" s="43"/>
     </row>
     <row r="236" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="41" t="s">
+      <c r="A236" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="B236" s="43"/>
-      <c r="C236" s="43"/>
-      <c r="D236" s="43"/>
+      <c r="B236" s="44"/>
+      <c r="C236" s="44"/>
+      <c r="D236" s="44"/>
     </row>
     <row r="237" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
@@ -4684,20 +4719,20 @@
       <c r="D243" s="8"/>
     </row>
     <row r="244" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A244" s="42" t="s">
+      <c r="A244" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B244" s="42"/>
-      <c r="C244" s="42"/>
-      <c r="D244" s="42"/>
+      <c r="B244" s="43"/>
+      <c r="C244" s="43"/>
+      <c r="D244" s="43"/>
     </row>
     <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="41" t="s">
+      <c r="A245" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="B245" s="41"/>
-      <c r="C245" s="41"/>
-      <c r="D245" s="41"/>
+      <c r="B245" s="42"/>
+      <c r="C245" s="42"/>
+      <c r="D245" s="42"/>
     </row>
     <row r="246" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
@@ -4786,20 +4821,20 @@
       <c r="D252" s="8"/>
     </row>
     <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A253" s="42" t="s">
+      <c r="A253" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B253" s="42"/>
-      <c r="C253" s="42"/>
-      <c r="D253" s="42"/>
+      <c r="B253" s="43"/>
+      <c r="C253" s="43"/>
+      <c r="D253" s="43"/>
     </row>
     <row r="254" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="41" t="s">
+      <c r="A254" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B254" s="41"/>
-      <c r="C254" s="41"/>
-      <c r="D254" s="41"/>
+      <c r="B254" s="42"/>
+      <c r="C254" s="42"/>
+      <c r="D254" s="42"/>
     </row>
     <row r="255" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
@@ -4888,20 +4923,20 @@
       <c r="D261" s="8"/>
     </row>
     <row r="262" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A262" s="42" t="s">
+      <c r="A262" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B262" s="42"/>
-      <c r="C262" s="42"/>
-      <c r="D262" s="42"/>
+      <c r="B262" s="43"/>
+      <c r="C262" s="43"/>
+      <c r="D262" s="43"/>
     </row>
     <row r="263" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="41" t="s">
+      <c r="A263" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="B263" s="41"/>
-      <c r="C263" s="41"/>
-      <c r="D263" s="41"/>
+      <c r="B263" s="42"/>
+      <c r="C263" s="42"/>
+      <c r="D263" s="42"/>
     </row>
     <row r="264" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
@@ -4990,20 +5025,20 @@
       <c r="D270" s="8"/>
     </row>
     <row r="271" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A271" s="42" t="s">
+      <c r="A271" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B271" s="42"/>
-      <c r="C271" s="42"/>
-      <c r="D271" s="42"/>
+      <c r="B271" s="43"/>
+      <c r="C271" s="43"/>
+      <c r="D271" s="43"/>
     </row>
     <row r="272" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A272" s="41" t="s">
+      <c r="A272" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="B272" s="41"/>
-      <c r="C272" s="41"/>
-      <c r="D272" s="41"/>
+      <c r="B272" s="42"/>
+      <c r="C272" s="42"/>
+      <c r="D272" s="42"/>
     </row>
     <row r="273" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
@@ -5090,20 +5125,20 @@
       <c r="D279" s="8"/>
     </row>
     <row r="280" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A280" s="42" t="s">
+      <c r="A280" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B280" s="42"/>
-      <c r="C280" s="42"/>
-      <c r="D280" s="42"/>
+      <c r="B280" s="43"/>
+      <c r="C280" s="43"/>
+      <c r="D280" s="43"/>
     </row>
     <row r="281" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A281" s="41" t="s">
+      <c r="A281" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="B281" s="41"/>
-      <c r="C281" s="41"/>
-      <c r="D281" s="41"/>
+      <c r="B281" s="42"/>
+      <c r="C281" s="42"/>
+      <c r="D281" s="42"/>
     </row>
     <row r="282" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
@@ -5126,7 +5161,9 @@
       <c r="B283" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C283" s="40"/>
+      <c r="C283" s="40" t="s">
+        <v>313</v>
+      </c>
       <c r="D283" s="8"/>
     </row>
     <row r="284" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -5136,7 +5173,9 @@
       <c r="B284" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C284" s="40"/>
+      <c r="C284" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="D284" s="8"/>
     </row>
     <row r="285" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -5146,7 +5185,9 @@
       <c r="B285" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C285" s="40"/>
+      <c r="C285" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="D285" s="8"/>
     </row>
     <row r="286" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -5156,7 +5197,9 @@
       <c r="B286" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C286" s="40"/>
+      <c r="C286" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="D286" s="8"/>
     </row>
     <row r="287" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5166,7 +5209,9 @@
       <c r="B287" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C287" s="40"/>
+      <c r="C287" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="D287" s="8"/>
     </row>
     <row r="288" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -5176,19 +5221,162 @@
       <c r="B288" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C288" s="40"/>
+      <c r="C288" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="D288" s="8"/>
     </row>
     <row r="289" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A289" s="42" t="s">
+      <c r="A289" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B289" s="42"/>
-      <c r="C289" s="42"/>
-      <c r="D289" s="42"/>
+      <c r="B289" s="43"/>
+      <c r="C289" s="43"/>
+      <c r="D289" s="43"/>
+    </row>
+    <row r="290" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="B290" s="42"/>
+      <c r="C290" s="42"/>
+      <c r="D290" s="42"/>
+    </row>
+    <row r="291" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A291" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C292" s="41"/>
+      <c r="D292" s="8"/>
+    </row>
+    <row r="293" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C293" s="41"/>
+      <c r="D293" s="8"/>
+    </row>
+    <row r="294" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C294" s="41"/>
+      <c r="D294" s="8"/>
+    </row>
+    <row r="295" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C295" s="41"/>
+      <c r="D295" s="8"/>
+    </row>
+    <row r="296" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A296" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C296" s="41"/>
+      <c r="D296" s="8"/>
+    </row>
+    <row r="297" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C297" s="41"/>
+      <c r="D297" s="8"/>
+    </row>
+    <row r="298" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A298" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" s="43"/>
+      <c r="C298" s="43"/>
+      <c r="D298" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="67">
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A298:D298"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A254:D254"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A281:D281"/>
     <mergeCell ref="A289:D289"/>
     <mergeCell ref="A101:D101"/>
@@ -5205,55 +5393,6 @@
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A254:D254"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A271:D271"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
